--- a/testdata/QueryWalletBalance.xlsx
+++ b/testdata/QueryWalletBalance.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test data 1\Test data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="QueryWalletBalance" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QueryWalletBalance!$A$1:$O$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QueryWalletBalance!$A$1:$N$187</definedName>
     <definedName name="OLE_LINK10" localSheetId="1">QueryWalletBalance!#REF!</definedName>
     <definedName name="OLE_LINK12" localSheetId="1">QueryWalletBalance!#REF!</definedName>
     <definedName name="OLE_LINK14" localSheetId="1">QueryWalletBalance!#REF!</definedName>
@@ -26,7 +26,7 @@
     <definedName name="OLE_LINK36" localSheetId="1">QueryWalletBalance!$J$1</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">QueryWalletBalance!$L$1</definedName>
     <definedName name="OLE_LINK6" localSheetId="1">QueryWalletBalance!$M$1</definedName>
-    <definedName name="OLE_LINK63" localSheetId="1">QueryWalletBalance!$N$1</definedName>
+    <definedName name="OLE_LINK63" localSheetId="1">QueryWalletBalance!$O$1</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">QueryWalletBalance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="407">
   <si>
     <t>S.NO</t>
   </si>
@@ -1546,6 +1546,45 @@
     <t xml:space="preserve">Keyword used for the fields with scenario
  description as Value is not available
 (remove the tag) </t>
+  </si>
+  <si>
+    <t>responseCode</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>rrn</t>
+  </si>
+  <si>
+    <t>authidresp</t>
+  </si>
+  <si>
+    <t>txnUid</t>
+  </si>
+  <si>
+    <t>trxnTime</t>
+  </si>
+  <si>
+    <t>trxnTimeZone</t>
+  </si>
+  <si>
+    <t>digitalAssetName</t>
+  </si>
+  <si>
+    <t>availableQuantity</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Response  Pane</t>
+  </si>
+  <si>
+    <t>Response Code</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,6 +1657,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1735,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1775,6 +1820,33 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1805,12 +1877,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1819,6 +1885,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2EE802"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2095,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2153,10 +2224,10 @@
       <c r="A8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="31" t="s">
         <v>393</v>
       </c>
     </row>
@@ -2168,13 +2239,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:AE212"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="M207" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,10 +2264,13 @@
     <col min="12" max="12" width="39.7109375" style="25" customWidth="1"/>
     <col min="13" max="13" width="41" style="25" customWidth="1"/>
     <col min="14" max="15" width="40.140625" style="25" customWidth="1"/>
-    <col min="16" max="16384" width="51.140625" style="4"/>
+    <col min="16" max="16" width="12.140625" style="4" customWidth="1"/>
+    <col min="17" max="30" width="51.140625" style="4"/>
+    <col min="31" max="31" width="51.140625" style="29"/>
+    <col min="32" max="16384" width="51.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,17 +2311,65 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="P1" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2284,16 +2406,34 @@
         <v>24</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2327,16 +2467,34 @@
         <v>24</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2368,16 +2526,34 @@
         <v>24</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
@@ -2409,16 +2585,34 @@
         <v>24</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
@@ -2450,16 +2644,34 @@
         <v>24</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
@@ -2491,16 +2703,34 @@
         <v>24</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
@@ -2532,16 +2762,34 @@
         <v>24</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="14" t="s">
         <v>45</v>
       </c>
@@ -2573,16 +2821,34 @@
         <v>24</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="14" t="s">
         <v>45</v>
       </c>
@@ -2614,16 +2880,34 @@
         <v>24</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
@@ -2655,16 +2939,34 @@
         <v>24</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="14" t="s">
         <v>45</v>
       </c>
@@ -2696,16 +2998,34 @@
         <v>24</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="14" t="s">
         <v>45</v>
       </c>
@@ -2737,16 +3057,34 @@
         <v>24</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -2778,16 +3116,34 @@
         <v>24</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
@@ -2819,16 +3175,34 @@
         <v>24</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2860,16 +3234,34 @@
         <v>24</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="14" t="s">
         <v>65</v>
       </c>
@@ -2901,16 +3293,34 @@
         <v>24</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
@@ -2942,16 +3352,34 @@
         <v>24</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="14" t="s">
         <v>70</v>
       </c>
@@ -2983,16 +3411,34 @@
         <v>24</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="14" t="s">
         <v>73</v>
       </c>
@@ -3024,16 +3470,34 @@
         <v>24</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="14" t="s">
         <v>76</v>
       </c>
@@ -3063,16 +3527,34 @@
         <v>24</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="14" t="s">
         <v>79</v>
       </c>
@@ -3102,16 +3584,34 @@
         <v>24</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -3145,16 +3645,34 @@
         <v>24</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="14" t="s">
         <v>85</v>
       </c>
@@ -3184,16 +3702,34 @@
         <v>24</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="16" t="s">
         <v>87</v>
       </c>
@@ -3225,17 +3761,35 @@
         <v>24</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>2</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="42" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3272,16 +3826,34 @@
         <v>24</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -3315,16 +3887,34 @@
         <v>24</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
@@ -3356,16 +3946,34 @@
         <v>24</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
@@ -3397,16 +4005,34 @@
         <v>24</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="14" t="s">
         <v>36</v>
       </c>
@@ -3438,16 +4064,34 @@
         <v>24</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="14" t="s">
         <v>39</v>
       </c>
@@ -3479,16 +4123,34 @@
         <v>24</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="14" t="s">
         <v>42</v>
       </c>
@@ -3520,16 +4182,34 @@
         <v>24</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="14" t="s">
         <v>45</v>
       </c>
@@ -3561,16 +4241,34 @@
         <v>24</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
@@ -3602,16 +4300,34 @@
         <v>24</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="14" t="s">
         <v>45</v>
       </c>
@@ -3643,16 +4359,34 @@
         <v>24</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="14" t="s">
         <v>59</v>
       </c>
@@ -3684,16 +4418,34 @@
         <v>24</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="14" t="s">
         <v>62</v>
       </c>
@@ -3725,16 +4477,34 @@
         <v>24</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="14" t="s">
         <v>65</v>
       </c>
@@ -3766,16 +4536,34 @@
         <v>24</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="14" t="s">
         <v>67</v>
       </c>
@@ -3807,16 +4595,34 @@
         <v>24</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
@@ -3848,16 +4654,34 @@
         <v>24</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="14" t="s">
         <v>73</v>
       </c>
@@ -3889,16 +4713,34 @@
         <v>24</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="14" t="s">
         <v>76</v>
       </c>
@@ -3928,16 +4770,34 @@
         <v>24</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="14" t="s">
         <v>79</v>
       </c>
@@ -3967,16 +4827,34 @@
         <v>24</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -4010,16 +4888,34 @@
         <v>24</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -4049,16 +4945,34 @@
         <v>24</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="16" t="s">
         <v>87</v>
       </c>
@@ -4090,17 +5004,35 @@
         <v>24</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+        <v>25</v>
+      </c>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
         <v>3</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -4137,16 +5069,34 @@
         <v>24</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="45" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -4180,16 +5130,34 @@
         <v>24</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="14" t="s">
         <v>31</v>
       </c>
@@ -4221,16 +5189,34 @@
         <v>24</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="14" t="s">
         <v>34</v>
       </c>
@@ -4262,16 +5248,34 @@
         <v>24</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="14" t="s">
         <v>36</v>
       </c>
@@ -4303,16 +5307,34 @@
         <v>24</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="14" t="s">
         <v>39</v>
       </c>
@@ -4344,16 +5366,34 @@
         <v>24</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="14" t="s">
         <v>42</v>
       </c>
@@ -4385,16 +5425,34 @@
         <v>24</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="14" t="s">
         <v>45</v>
       </c>
@@ -4426,16 +5484,34 @@
         <v>24</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="14" t="s">
         <v>45</v>
       </c>
@@ -4467,16 +5543,34 @@
         <v>24</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="14" t="s">
         <v>45</v>
       </c>
@@ -4508,16 +5602,34 @@
         <v>24</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="14" t="s">
         <v>59</v>
       </c>
@@ -4549,16 +5661,34 @@
         <v>24</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="14" t="s">
         <v>62</v>
       </c>
@@ -4590,16 +5720,34 @@
         <v>24</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="14" t="s">
         <v>65</v>
       </c>
@@ -4631,16 +5779,34 @@
         <v>24</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="14" t="s">
         <v>67</v>
       </c>
@@ -4672,16 +5838,34 @@
         <v>24</v>
       </c>
       <c r="N60" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="14" t="s">
         <v>70</v>
       </c>
@@ -4713,16 +5897,34 @@
         <v>24</v>
       </c>
       <c r="N61" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
+      <c r="AD61" s="32"/>
+      <c r="AE61" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="14" t="s">
         <v>73</v>
       </c>
@@ -4754,16 +5956,34 @@
         <v>24</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="14" t="s">
         <v>76</v>
       </c>
@@ -4793,16 +6013,34 @@
         <v>24</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="32"/>
+      <c r="Z63" s="32"/>
+      <c r="AA63" s="32"/>
+      <c r="AB63" s="32"/>
+      <c r="AC63" s="32"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="14" t="s">
         <v>79</v>
       </c>
@@ -4832,16 +6070,34 @@
         <v>24</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -4875,16 +6131,34 @@
         <v>24</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
+      <c r="AA65" s="32"/>
+      <c r="AB65" s="32"/>
+      <c r="AC65" s="32"/>
+      <c r="AD65" s="32"/>
+      <c r="AE65" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="40"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="14" t="s">
         <v>85</v>
       </c>
@@ -4914,16 +6188,34 @@
         <v>24</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="32"/>
+      <c r="AE66" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="16" t="s">
         <v>87</v>
       </c>
@@ -4955,17 +6247,35 @@
         <v>24</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
+        <v>25</v>
+      </c>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
+      <c r="AC67" s="32"/>
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="39">
         <v>4</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -5002,16 +6312,34 @@
         <v>24</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
+      <c r="AA68" s="32"/>
+      <c r="AB68" s="32"/>
+      <c r="AC68" s="32"/>
+      <c r="AD68" s="32"/>
+      <c r="AE68" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="45" t="s">
         <v>166</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -5045,16 +6373,34 @@
         <v>24</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
+      <c r="AA69" s="32"/>
+      <c r="AB69" s="32"/>
+      <c r="AC69" s="32"/>
+      <c r="AD69" s="32"/>
+      <c r="AE69" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="14" t="s">
         <v>31</v>
       </c>
@@ -5086,16 +6432,34 @@
         <v>24</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="32"/>
+      <c r="U70" s="32"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="32"/>
+      <c r="Z70" s="32"/>
+      <c r="AA70" s="32"/>
+      <c r="AB70" s="32"/>
+      <c r="AC70" s="32"/>
+      <c r="AD70" s="32"/>
+      <c r="AE70" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="14" t="s">
         <v>34</v>
       </c>
@@ -5127,16 +6491,34 @@
         <v>24</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="32"/>
+      <c r="Z71" s="32"/>
+      <c r="AA71" s="32"/>
+      <c r="AB71" s="32"/>
+      <c r="AC71" s="32"/>
+      <c r="AD71" s="32"/>
+      <c r="AE71" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="14" t="s">
         <v>36</v>
       </c>
@@ -5168,16 +6550,34 @@
         <v>24</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="14" t="s">
         <v>39</v>
       </c>
@@ -5209,16 +6609,34 @@
         <v>24</v>
       </c>
       <c r="N73" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="32"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="32"/>
+      <c r="Z73" s="32"/>
+      <c r="AA73" s="32"/>
+      <c r="AB73" s="32"/>
+      <c r="AC73" s="32"/>
+      <c r="AD73" s="32"/>
+      <c r="AE73" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="14" t="s">
         <v>42</v>
       </c>
@@ -5250,16 +6668,34 @@
         <v>24</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="14" t="s">
         <v>45</v>
       </c>
@@ -5291,16 +6727,34 @@
         <v>24</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="32"/>
+      <c r="U75" s="32"/>
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="32"/>
+      <c r="AA75" s="32"/>
+      <c r="AB75" s="32"/>
+      <c r="AC75" s="32"/>
+      <c r="AD75" s="32"/>
+      <c r="AE75" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="14" t="s">
         <v>45</v>
       </c>
@@ -5332,16 +6786,34 @@
         <v>24</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="32"/>
+      <c r="U76" s="32"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="32"/>
+      <c r="Z76" s="32"/>
+      <c r="AA76" s="32"/>
+      <c r="AB76" s="32"/>
+      <c r="AC76" s="32"/>
+      <c r="AD76" s="32"/>
+      <c r="AE76" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="40"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="14" t="s">
         <v>45</v>
       </c>
@@ -5373,16 +6845,34 @@
         <v>24</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="32"/>
+      <c r="U77" s="32"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="32"/>
+      <c r="Z77" s="32"/>
+      <c r="AA77" s="32"/>
+      <c r="AB77" s="32"/>
+      <c r="AC77" s="32"/>
+      <c r="AD77" s="32"/>
+      <c r="AE77" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="14" t="s">
         <v>45</v>
       </c>
@@ -5414,16 +6904,34 @@
         <v>24</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
+      <c r="U78" s="32"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="32"/>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="32"/>
+      <c r="Z78" s="32"/>
+      <c r="AA78" s="32"/>
+      <c r="AB78" s="32"/>
+      <c r="AC78" s="32"/>
+      <c r="AD78" s="32"/>
+      <c r="AE78" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="14" t="s">
         <v>45</v>
       </c>
@@ -5455,16 +6963,34 @@
         <v>24</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
+      <c r="U79" s="32"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="32"/>
+      <c r="Z79" s="32"/>
+      <c r="AA79" s="32"/>
+      <c r="AB79" s="32"/>
+      <c r="AC79" s="32"/>
+      <c r="AD79" s="32"/>
+      <c r="AE79" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A80" s="40"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="14" t="s">
         <v>45</v>
       </c>
@@ -5496,16 +7022,34 @@
         <v>24</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
+      <c r="AD80" s="32"/>
+      <c r="AE80" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A81" s="40"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="14" t="s">
         <v>59</v>
       </c>
@@ -5537,16 +7081,34 @@
         <v>24</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32"/>
+      <c r="AD81" s="32"/>
+      <c r="AE81" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A82" s="40"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="14" t="s">
         <v>62</v>
       </c>
@@ -5578,16 +7140,34 @@
         <v>24</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83" s="40"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="14" t="s">
         <v>65</v>
       </c>
@@ -5619,16 +7199,34 @@
         <v>24</v>
       </c>
       <c r="N83" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
+      <c r="AA83" s="32"/>
+      <c r="AB83" s="32"/>
+      <c r="AC83" s="32"/>
+      <c r="AD83" s="32"/>
+      <c r="AE83" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="40"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="14" t="s">
         <v>67</v>
       </c>
@@ -5660,16 +7258,34 @@
         <v>24</v>
       </c>
       <c r="N84" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="32"/>
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="32"/>
+      <c r="AE84" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="40"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="14" t="s">
         <v>70</v>
       </c>
@@ -5701,16 +7317,34 @@
         <v>24</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="32"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="32"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="32"/>
+      <c r="AE85" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="14" t="s">
         <v>73</v>
       </c>
@@ -5742,16 +7376,34 @@
         <v>24</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O86" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="32"/>
+      <c r="Z86" s="32"/>
+      <c r="AA86" s="32"/>
+      <c r="AB86" s="32"/>
+      <c r="AC86" s="32"/>
+      <c r="AD86" s="32"/>
+      <c r="AE86" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="14" t="s">
         <v>76</v>
       </c>
@@ -5781,16 +7433,34 @@
         <v>24</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32"/>
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="14" t="s">
         <v>79</v>
       </c>
@@ -5820,16 +7490,34 @@
         <v>24</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32"/>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32"/>
+      <c r="Y88" s="32"/>
+      <c r="Z88" s="32"/>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32"/>
+      <c r="AC88" s="32"/>
+      <c r="AD88" s="32"/>
+      <c r="AE88" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -5863,16 +7551,34 @@
         <v>24</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O89" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="32"/>
+      <c r="U89" s="32"/>
+      <c r="V89" s="32"/>
+      <c r="W89" s="32"/>
+      <c r="X89" s="32"/>
+      <c r="Y89" s="32"/>
+      <c r="Z89" s="32"/>
+      <c r="AA89" s="32"/>
+      <c r="AB89" s="32"/>
+      <c r="AC89" s="32"/>
+      <c r="AD89" s="32"/>
+      <c r="AE89" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90" s="40"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="14" t="s">
         <v>85</v>
       </c>
@@ -5902,16 +7608,34 @@
         <v>24</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="32"/>
+      <c r="AB90" s="32"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="32"/>
+      <c r="AE90" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="16" t="s">
         <v>87</v>
       </c>
@@ -5943,17 +7667,35 @@
         <v>24</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O91" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
+        <v>25</v>
+      </c>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="32"/>
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="32"/>
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="32"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="32"/>
+      <c r="AE91" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="39">
         <v>5</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -5990,16 +7732,34 @@
         <v>24</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A93" s="40"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="45" t="s">
         <v>196</v>
       </c>
       <c r="D93" s="14" t="s">
@@ -6033,16 +7793,34 @@
         <v>24</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="32"/>
+      <c r="T93" s="32"/>
+      <c r="U93" s="32"/>
+      <c r="V93" s="32"/>
+      <c r="W93" s="32"/>
+      <c r="X93" s="32"/>
+      <c r="Y93" s="32"/>
+      <c r="Z93" s="32"/>
+      <c r="AA93" s="32"/>
+      <c r="AB93" s="32"/>
+      <c r="AC93" s="32"/>
+      <c r="AD93" s="32"/>
+      <c r="AE93" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94" s="40"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45"/>
       <c r="D94" s="14" t="s">
         <v>31</v>
       </c>
@@ -6074,16 +7852,34 @@
         <v>24</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O94" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="32"/>
+      <c r="T94" s="32"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="32"/>
+      <c r="W94" s="32"/>
+      <c r="X94" s="32"/>
+      <c r="Y94" s="32"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="32"/>
+      <c r="AB94" s="32"/>
+      <c r="AC94" s="32"/>
+      <c r="AD94" s="32"/>
+      <c r="AE94" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="45"/>
       <c r="D95" s="14" t="s">
         <v>34</v>
       </c>
@@ -6115,16 +7911,34 @@
         <v>24</v>
       </c>
       <c r="N95" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O95" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="32"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="32"/>
+      <c r="Z95" s="32"/>
+      <c r="AA95" s="32"/>
+      <c r="AB95" s="32"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="32"/>
+      <c r="AE95" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="45"/>
       <c r="D96" s="14" t="s">
         <v>36</v>
       </c>
@@ -6156,16 +7970,34 @@
         <v>24</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="32"/>
+      <c r="U96" s="32"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="32"/>
+      <c r="Z96" s="32"/>
+      <c r="AA96" s="32"/>
+      <c r="AB96" s="32"/>
+      <c r="AC96" s="32"/>
+      <c r="AD96" s="32"/>
+      <c r="AE96" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="14" t="s">
         <v>39</v>
       </c>
@@ -6197,16 +8029,34 @@
         <v>24</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O97" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="32"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="32"/>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="45"/>
       <c r="D98" s="14" t="s">
         <v>42</v>
       </c>
@@ -6238,16 +8088,34 @@
         <v>24</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O98" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="32"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="32"/>
+      <c r="X98" s="32"/>
+      <c r="Y98" s="32"/>
+      <c r="Z98" s="32"/>
+      <c r="AA98" s="32"/>
+      <c r="AB98" s="32"/>
+      <c r="AC98" s="32"/>
+      <c r="AD98" s="32"/>
+      <c r="AE98" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="45"/>
       <c r="D99" s="14" t="s">
         <v>45</v>
       </c>
@@ -6279,16 +8147,34 @@
         <v>24</v>
       </c>
       <c r="N99" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O99" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="32"/>
+      <c r="U99" s="32"/>
+      <c r="V99" s="32"/>
+      <c r="W99" s="32"/>
+      <c r="X99" s="32"/>
+      <c r="Y99" s="32"/>
+      <c r="Z99" s="32"/>
+      <c r="AA99" s="32"/>
+      <c r="AB99" s="32"/>
+      <c r="AC99" s="32"/>
+      <c r="AD99" s="32"/>
+      <c r="AE99" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="14" t="s">
         <v>45</v>
       </c>
@@ -6320,16 +8206,34 @@
         <v>24</v>
       </c>
       <c r="N100" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O100" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="32"/>
+      <c r="U100" s="32"/>
+      <c r="V100" s="32"/>
+      <c r="W100" s="32"/>
+      <c r="X100" s="32"/>
+      <c r="Y100" s="32"/>
+      <c r="Z100" s="32"/>
+      <c r="AA100" s="32"/>
+      <c r="AB100" s="32"/>
+      <c r="AC100" s="32"/>
+      <c r="AD100" s="32"/>
+      <c r="AE100" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="45"/>
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
@@ -6361,16 +8265,34 @@
         <v>24</v>
       </c>
       <c r="N101" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O101" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="32"/>
+      <c r="X101" s="32"/>
+      <c r="Y101" s="32"/>
+      <c r="Z101" s="32"/>
+      <c r="AA101" s="32"/>
+      <c r="AB101" s="32"/>
+      <c r="AC101" s="32"/>
+      <c r="AD101" s="32"/>
+      <c r="AE101" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="45"/>
       <c r="D102" s="14" t="s">
         <v>59</v>
       </c>
@@ -6402,16 +8324,34 @@
         <v>24</v>
       </c>
       <c r="N102" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O102" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="32"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="32"/>
+      <c r="AB102" s="32"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="32"/>
+      <c r="AE102" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="45"/>
       <c r="D103" s="14" t="s">
         <v>62</v>
       </c>
@@ -6443,16 +8383,34 @@
         <v>24</v>
       </c>
       <c r="N103" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O103" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
+      <c r="Z103" s="32"/>
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="32"/>
+      <c r="AE103" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="45"/>
       <c r="D104" s="14" t="s">
         <v>65</v>
       </c>
@@ -6484,16 +8442,34 @@
         <v>24</v>
       </c>
       <c r="N104" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="32"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="32"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="32"/>
+      <c r="AB104" s="32"/>
+      <c r="AC104" s="32"/>
+      <c r="AD104" s="32"/>
+      <c r="AE104" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="45"/>
       <c r="D105" s="14" t="s">
         <v>67</v>
       </c>
@@ -6525,16 +8501,34 @@
         <v>24</v>
       </c>
       <c r="N105" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O105" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="32"/>
+      <c r="Z105" s="32"/>
+      <c r="AA105" s="32"/>
+      <c r="AB105" s="32"/>
+      <c r="AC105" s="32"/>
+      <c r="AD105" s="32"/>
+      <c r="AE105" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="45"/>
       <c r="D106" s="14" t="s">
         <v>70</v>
       </c>
@@ -6566,16 +8560,34 @@
         <v>24</v>
       </c>
       <c r="N106" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O106" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="32"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="32"/>
+      <c r="Y106" s="32"/>
+      <c r="Z106" s="32"/>
+      <c r="AA106" s="32"/>
+      <c r="AB106" s="32"/>
+      <c r="AC106" s="32"/>
+      <c r="AD106" s="32"/>
+      <c r="AE106" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="45"/>
       <c r="D107" s="14" t="s">
         <v>73</v>
       </c>
@@ -6607,16 +8619,34 @@
         <v>24</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O107" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="32"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="32"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="32"/>
+      <c r="AB107" s="32"/>
+      <c r="AC107" s="32"/>
+      <c r="AD107" s="32"/>
+      <c r="AE107" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="14" t="s">
         <v>76</v>
       </c>
@@ -6646,16 +8676,34 @@
         <v>24</v>
       </c>
       <c r="N108" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="32"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="32"/>
+      <c r="AB108" s="32"/>
+      <c r="AC108" s="32"/>
+      <c r="AD108" s="32"/>
+      <c r="AE108" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="14" t="s">
         <v>79</v>
       </c>
@@ -6685,16 +8733,34 @@
         <v>24</v>
       </c>
       <c r="N109" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="32"/>
+      <c r="U109" s="32"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="32"/>
+      <c r="Z109" s="32"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="32"/>
+      <c r="AC109" s="32"/>
+      <c r="AD109" s="32"/>
+      <c r="AE109" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -6728,16 +8794,34 @@
         <v>24</v>
       </c>
       <c r="N110" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O110" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="32"/>
+      <c r="U110" s="32"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+      <c r="X110" s="32"/>
+      <c r="Y110" s="32"/>
+      <c r="Z110" s="32"/>
+      <c r="AA110" s="32"/>
+      <c r="AB110" s="32"/>
+      <c r="AC110" s="32"/>
+      <c r="AD110" s="32"/>
+      <c r="AE110" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="14" t="s">
         <v>85</v>
       </c>
@@ -6767,16 +8851,34 @@
         <v>24</v>
       </c>
       <c r="N111" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="32"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="32"/>
+      <c r="AB111" s="32"/>
+      <c r="AC111" s="32"/>
+      <c r="AD111" s="32"/>
+      <c r="AE111" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="16" t="s">
         <v>87</v>
       </c>
@@ -6808,20 +8910,38 @@
         <v>24</v>
       </c>
       <c r="N112" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
+        <v>25</v>
+      </c>
+      <c r="P112" s="37"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="32"/>
+      <c r="AB112" s="32"/>
+      <c r="AC112" s="32"/>
+      <c r="AD112" s="32"/>
+      <c r="AE112" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A113" s="39">
         <v>6</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="45" t="s">
         <v>193</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -6855,16 +8975,34 @@
         <v>24</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="32"/>
+      <c r="AE113" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="45"/>
       <c r="D114" s="6" t="s">
         <v>226</v>
       </c>
@@ -6896,16 +9034,34 @@
         <v>24</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O114" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="32"/>
+      <c r="U114" s="32"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="32"/>
+      <c r="Y114" s="32"/>
+      <c r="Z114" s="32"/>
+      <c r="AA114" s="32"/>
+      <c r="AB114" s="32"/>
+      <c r="AC114" s="32"/>
+      <c r="AD114" s="32"/>
+      <c r="AE114" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="40"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="45"/>
       <c r="D115" s="6" t="s">
         <v>228</v>
       </c>
@@ -6937,16 +9093,34 @@
         <v>24</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O115" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="32"/>
+      <c r="U115" s="32"/>
+      <c r="V115" s="32"/>
+      <c r="W115" s="32"/>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="32"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="32"/>
+      <c r="AC115" s="32"/>
+      <c r="AD115" s="32"/>
+      <c r="AE115" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="45"/>
       <c r="D116" s="6" t="s">
         <v>231</v>
       </c>
@@ -6978,16 +9152,34 @@
         <v>24</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O116" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P116" s="37"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="32"/>
+      <c r="T116" s="32"/>
+      <c r="U116" s="32"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="32"/>
+      <c r="Z116" s="32"/>
+      <c r="AA116" s="32"/>
+      <c r="AB116" s="32"/>
+      <c r="AC116" s="32"/>
+      <c r="AD116" s="32"/>
+      <c r="AE116" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="40"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="45"/>
       <c r="D117" s="6" t="s">
         <v>234</v>
       </c>
@@ -7019,16 +9211,34 @@
         <v>24</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O117" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="34"/>
-      <c r="C118" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
+      <c r="Z117" s="32"/>
+      <c r="AA117" s="32"/>
+      <c r="AB117" s="32"/>
+      <c r="AC117" s="32"/>
+      <c r="AD117" s="32"/>
+      <c r="AE117" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A118" s="40"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="45" t="s">
         <v>237</v>
       </c>
       <c r="D118" s="14" t="s">
@@ -7062,16 +9272,34 @@
         <v>24</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O118" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="32"/>
+      <c r="S118" s="32"/>
+      <c r="T118" s="32"/>
+      <c r="U118" s="32"/>
+      <c r="V118" s="32"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="32"/>
+      <c r="Z118" s="32"/>
+      <c r="AA118" s="32"/>
+      <c r="AB118" s="32"/>
+      <c r="AC118" s="32"/>
+      <c r="AD118" s="32"/>
+      <c r="AE118" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A119" s="40"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="45"/>
       <c r="D119" s="14" t="s">
         <v>31</v>
       </c>
@@ -7103,16 +9331,34 @@
         <v>24</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O119" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="32"/>
+      <c r="T119" s="32"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A120" s="40"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="45"/>
       <c r="D120" s="14" t="s">
         <v>34</v>
       </c>
@@ -7144,16 +9390,34 @@
         <v>24</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O120" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="32"/>
+      <c r="S120" s="32"/>
+      <c r="T120" s="32"/>
+      <c r="U120" s="32"/>
+      <c r="V120" s="32"/>
+      <c r="W120" s="32"/>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="32"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="32"/>
+      <c r="AB120" s="32"/>
+      <c r="AC120" s="32"/>
+      <c r="AD120" s="32"/>
+      <c r="AE120" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A121" s="40"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="14" t="s">
         <v>36</v>
       </c>
@@ -7185,16 +9449,34 @@
         <v>24</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O121" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="32"/>
+      <c r="T121" s="32"/>
+      <c r="U121" s="32"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="32"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="32"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A122" s="40"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="45"/>
       <c r="D122" s="14" t="s">
         <v>39</v>
       </c>
@@ -7226,16 +9508,34 @@
         <v>24</v>
       </c>
       <c r="N122" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O122" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="32"/>
+      <c r="AE122" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A123" s="40"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="45"/>
       <c r="D123" s="14" t="s">
         <v>42</v>
       </c>
@@ -7267,16 +9567,34 @@
         <v>24</v>
       </c>
       <c r="N123" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O123" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="32"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="32"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32"/>
+      <c r="AE123" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="14" t="s">
         <v>45</v>
       </c>
@@ -7308,16 +9626,34 @@
         <v>24</v>
       </c>
       <c r="N124" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O124" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="32"/>
+      <c r="S124" s="32"/>
+      <c r="T124" s="32"/>
+      <c r="U124" s="32"/>
+      <c r="V124" s="32"/>
+      <c r="W124" s="32"/>
+      <c r="X124" s="32"/>
+      <c r="Y124" s="32"/>
+      <c r="Z124" s="32"/>
+      <c r="AA124" s="32"/>
+      <c r="AB124" s="32"/>
+      <c r="AC124" s="32"/>
+      <c r="AD124" s="32"/>
+      <c r="AE124" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A125" s="40"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="14" t="s">
         <v>45</v>
       </c>
@@ -7349,16 +9685,34 @@
         <v>24</v>
       </c>
       <c r="N125" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O125" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="45"/>
       <c r="D126" s="14" t="s">
         <v>45</v>
       </c>
@@ -7390,16 +9744,34 @@
         <v>24</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+      <c r="T126" s="32"/>
+      <c r="U126" s="32"/>
+      <c r="V126" s="32"/>
+      <c r="W126" s="32"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="32"/>
+      <c r="Z126" s="32"/>
+      <c r="AA126" s="32"/>
+      <c r="AB126" s="32"/>
+      <c r="AC126" s="32"/>
+      <c r="AD126" s="32"/>
+      <c r="AE126" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A127" s="40"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="14" t="s">
         <v>59</v>
       </c>
@@ -7431,16 +9803,34 @@
         <v>24</v>
       </c>
       <c r="N127" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O127" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P127" s="37"/>
+      <c r="Q127" s="32"/>
+      <c r="R127" s="32"/>
+      <c r="S127" s="32"/>
+      <c r="T127" s="32"/>
+      <c r="U127" s="32"/>
+      <c r="V127" s="32"/>
+      <c r="W127" s="32"/>
+      <c r="X127" s="32"/>
+      <c r="Y127" s="32"/>
+      <c r="Z127" s="32"/>
+      <c r="AA127" s="32"/>
+      <c r="AB127" s="32"/>
+      <c r="AC127" s="32"/>
+      <c r="AD127" s="32"/>
+      <c r="AE127" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A128" s="40"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="45"/>
       <c r="D128" s="14" t="s">
         <v>62</v>
       </c>
@@ -7472,16 +9862,34 @@
         <v>24</v>
       </c>
       <c r="N128" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O128" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32"/>
+      <c r="S128" s="32"/>
+      <c r="T128" s="32"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="32"/>
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="32"/>
+      <c r="Z128" s="32"/>
+      <c r="AA128" s="32"/>
+      <c r="AB128" s="32"/>
+      <c r="AC128" s="32"/>
+      <c r="AD128" s="32"/>
+      <c r="AE128" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A129" s="40"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="45"/>
       <c r="D129" s="14" t="s">
         <v>65</v>
       </c>
@@ -7513,16 +9921,34 @@
         <v>24</v>
       </c>
       <c r="N129" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O129" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="32"/>
+      <c r="T129" s="32"/>
+      <c r="U129" s="32"/>
+      <c r="V129" s="32"/>
+      <c r="W129" s="32"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="32"/>
+      <c r="Z129" s="32"/>
+      <c r="AA129" s="32"/>
+      <c r="AB129" s="32"/>
+      <c r="AC129" s="32"/>
+      <c r="AD129" s="32"/>
+      <c r="AE129" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="45"/>
       <c r="D130" s="14" t="s">
         <v>67</v>
       </c>
@@ -7554,16 +9980,34 @@
         <v>24</v>
       </c>
       <c r="N130" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O130" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="32"/>
+      <c r="T130" s="32"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="32"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="32"/>
+      <c r="AB130" s="32"/>
+      <c r="AC130" s="32"/>
+      <c r="AD130" s="32"/>
+      <c r="AE130" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="45"/>
       <c r="D131" s="14" t="s">
         <v>70</v>
       </c>
@@ -7595,16 +10039,34 @@
         <v>24</v>
       </c>
       <c r="N131" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O131" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P131" s="37"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="32"/>
+      <c r="S131" s="32"/>
+      <c r="T131" s="32"/>
+      <c r="U131" s="32"/>
+      <c r="V131" s="32"/>
+      <c r="W131" s="32"/>
+      <c r="X131" s="32"/>
+      <c r="Y131" s="32"/>
+      <c r="Z131" s="32"/>
+      <c r="AA131" s="32"/>
+      <c r="AB131" s="32"/>
+      <c r="AC131" s="32"/>
+      <c r="AD131" s="32"/>
+      <c r="AE131" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="45"/>
       <c r="D132" s="14" t="s">
         <v>73</v>
       </c>
@@ -7636,16 +10098,34 @@
         <v>24</v>
       </c>
       <c r="N132" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O132" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P132" s="37"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="32"/>
+      <c r="S132" s="32"/>
+      <c r="T132" s="32"/>
+      <c r="U132" s="32"/>
+      <c r="V132" s="32"/>
+      <c r="W132" s="32"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="32"/>
+      <c r="Z132" s="32"/>
+      <c r="AA132" s="32"/>
+      <c r="AB132" s="32"/>
+      <c r="AC132" s="32"/>
+      <c r="AD132" s="32"/>
+      <c r="AE132" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="45"/>
       <c r="D133" s="14" t="s">
         <v>76</v>
       </c>
@@ -7675,16 +10155,34 @@
         <v>24</v>
       </c>
       <c r="N133" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O133" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="32"/>
+      <c r="S133" s="32"/>
+      <c r="T133" s="32"/>
+      <c r="U133" s="32"/>
+      <c r="V133" s="32"/>
+      <c r="W133" s="32"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="32"/>
+      <c r="Z133" s="32"/>
+      <c r="AA133" s="32"/>
+      <c r="AB133" s="32"/>
+      <c r="AC133" s="32"/>
+      <c r="AD133" s="32"/>
+      <c r="AE133" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="45"/>
       <c r="D134" s="14" t="s">
         <v>79</v>
       </c>
@@ -7714,16 +10212,34 @@
         <v>24</v>
       </c>
       <c r="N134" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O134" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" s="37"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+      <c r="Z134" s="32"/>
+      <c r="AA134" s="32"/>
+      <c r="AB134" s="32"/>
+      <c r="AC134" s="32"/>
+      <c r="AD134" s="32"/>
+      <c r="AE134" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D135" s="14" t="s">
@@ -7757,16 +10273,34 @@
         <v>24</v>
       </c>
       <c r="N135" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O135" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="32"/>
+      <c r="R135" s="32"/>
+      <c r="S135" s="32"/>
+      <c r="T135" s="32"/>
+      <c r="U135" s="32"/>
+      <c r="V135" s="32"/>
+      <c r="W135" s="32"/>
+      <c r="X135" s="32"/>
+      <c r="Y135" s="32"/>
+      <c r="Z135" s="32"/>
+      <c r="AA135" s="32"/>
+      <c r="AB135" s="32"/>
+      <c r="AC135" s="32"/>
+      <c r="AD135" s="32"/>
+      <c r="AE135" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="47"/>
       <c r="D136" s="14" t="s">
         <v>85</v>
       </c>
@@ -7796,16 +10330,34 @@
         <v>24</v>
       </c>
       <c r="N136" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O136" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P136" s="37"/>
+      <c r="Q136" s="32"/>
+      <c r="R136" s="32"/>
+      <c r="S136" s="32"/>
+      <c r="T136" s="32"/>
+      <c r="U136" s="32"/>
+      <c r="V136" s="32"/>
+      <c r="W136" s="32"/>
+      <c r="X136" s="32"/>
+      <c r="Y136" s="32"/>
+      <c r="Z136" s="32"/>
+      <c r="AA136" s="32"/>
+      <c r="AB136" s="32"/>
+      <c r="AC136" s="32"/>
+      <c r="AD136" s="32"/>
+      <c r="AE136" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="48"/>
       <c r="D137" s="16" t="s">
         <v>87</v>
       </c>
@@ -7837,20 +10389,38 @@
         <v>24</v>
       </c>
       <c r="N137" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O137" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A138" s="30">
+        <v>25</v>
+      </c>
+      <c r="P137" s="37"/>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="32"/>
+      <c r="S137" s="32"/>
+      <c r="T137" s="32"/>
+      <c r="U137" s="32"/>
+      <c r="V137" s="32"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="32"/>
+      <c r="Z137" s="32"/>
+      <c r="AA137" s="32"/>
+      <c r="AB137" s="32"/>
+      <c r="AC137" s="32"/>
+      <c r="AD137" s="32"/>
+      <c r="AE137" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A138" s="39">
         <v>7</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="45" t="s">
         <v>265</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -7884,16 +10454,34 @@
         <v>1</v>
       </c>
       <c r="N138" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O138" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P138" s="37"/>
+      <c r="Q138" s="32"/>
+      <c r="R138" s="32"/>
+      <c r="S138" s="32"/>
+      <c r="T138" s="32"/>
+      <c r="U138" s="32"/>
+      <c r="V138" s="32"/>
+      <c r="W138" s="32"/>
+      <c r="X138" s="32"/>
+      <c r="Y138" s="32"/>
+      <c r="Z138" s="32"/>
+      <c r="AA138" s="32"/>
+      <c r="AB138" s="32"/>
+      <c r="AC138" s="32"/>
+      <c r="AD138" s="32"/>
+      <c r="AE138" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="6" t="s">
         <v>226</v>
       </c>
@@ -7925,16 +10513,34 @@
         <v>11</v>
       </c>
       <c r="N139" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O139" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P139" s="37"/>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="32"/>
+      <c r="S139" s="32"/>
+      <c r="T139" s="32"/>
+      <c r="U139" s="32"/>
+      <c r="V139" s="32"/>
+      <c r="W139" s="32"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="32"/>
+      <c r="Z139" s="32"/>
+      <c r="AA139" s="32"/>
+      <c r="AB139" s="32"/>
+      <c r="AC139" s="32"/>
+      <c r="AD139" s="32"/>
+      <c r="AE139" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="45"/>
       <c r="D140" s="6" t="s">
         <v>268</v>
       </c>
@@ -7966,16 +10572,34 @@
         <v>270</v>
       </c>
       <c r="N140" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O140" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P140" s="37"/>
+      <c r="Q140" s="32"/>
+      <c r="R140" s="32"/>
+      <c r="S140" s="32"/>
+      <c r="T140" s="32"/>
+      <c r="U140" s="32"/>
+      <c r="V140" s="32"/>
+      <c r="W140" s="32"/>
+      <c r="X140" s="32"/>
+      <c r="Y140" s="32"/>
+      <c r="Z140" s="32"/>
+      <c r="AA140" s="32"/>
+      <c r="AB140" s="32"/>
+      <c r="AC140" s="32"/>
+      <c r="AD140" s="32"/>
+      <c r="AE140" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A141" s="40"/>
+      <c r="B141" s="43"/>
+      <c r="C141" s="45"/>
       <c r="D141" s="6" t="s">
         <v>271</v>
       </c>
@@ -8007,16 +10631,34 @@
         <v>273</v>
       </c>
       <c r="N141" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O141" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P141" s="37"/>
+      <c r="Q141" s="32"/>
+      <c r="R141" s="32"/>
+      <c r="S141" s="32"/>
+      <c r="T141" s="32"/>
+      <c r="U141" s="32"/>
+      <c r="V141" s="32"/>
+      <c r="W141" s="32"/>
+      <c r="X141" s="32"/>
+      <c r="Y141" s="32"/>
+      <c r="Z141" s="32"/>
+      <c r="AA141" s="32"/>
+      <c r="AB141" s="32"/>
+      <c r="AC141" s="32"/>
+      <c r="AD141" s="32"/>
+      <c r="AE141" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="45"/>
       <c r="D142" s="6" t="s">
         <v>274</v>
       </c>
@@ -8048,16 +10690,34 @@
         <v>276</v>
       </c>
       <c r="N142" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O142" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P142" s="37"/>
+      <c r="Q142" s="32"/>
+      <c r="R142" s="32"/>
+      <c r="S142" s="32"/>
+      <c r="T142" s="32"/>
+      <c r="U142" s="32"/>
+      <c r="V142" s="32"/>
+      <c r="W142" s="32"/>
+      <c r="X142" s="32"/>
+      <c r="Y142" s="32"/>
+      <c r="Z142" s="32"/>
+      <c r="AA142" s="32"/>
+      <c r="AB142" s="32"/>
+      <c r="AC142" s="32"/>
+      <c r="AD142" s="32"/>
+      <c r="AE142" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="43"/>
+      <c r="C143" s="45" t="s">
         <v>277</v>
       </c>
       <c r="D143" s="14" t="s">
@@ -8091,16 +10751,34 @@
         <v>279</v>
       </c>
       <c r="N143" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O143" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P143" s="37"/>
+      <c r="Q143" s="32"/>
+      <c r="R143" s="32"/>
+      <c r="S143" s="32"/>
+      <c r="T143" s="32"/>
+      <c r="U143" s="32"/>
+      <c r="V143" s="32"/>
+      <c r="W143" s="32"/>
+      <c r="X143" s="32"/>
+      <c r="Y143" s="32"/>
+      <c r="Z143" s="32"/>
+      <c r="AA143" s="32"/>
+      <c r="AB143" s="32"/>
+      <c r="AC143" s="32"/>
+      <c r="AD143" s="32"/>
+      <c r="AE143" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="45"/>
       <c r="D144" s="14" t="s">
         <v>31</v>
       </c>
@@ -8132,16 +10810,34 @@
         <v>12</v>
       </c>
       <c r="N144" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O144" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="32"/>
+      <c r="R144" s="32"/>
+      <c r="S144" s="32"/>
+      <c r="T144" s="32"/>
+      <c r="U144" s="32"/>
+      <c r="V144" s="32"/>
+      <c r="W144" s="32"/>
+      <c r="X144" s="32"/>
+      <c r="Y144" s="32"/>
+      <c r="Z144" s="32"/>
+      <c r="AA144" s="32"/>
+      <c r="AB144" s="32"/>
+      <c r="AC144" s="32"/>
+      <c r="AD144" s="32"/>
+      <c r="AE144" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="45"/>
       <c r="D145" s="14" t="s">
         <v>34</v>
       </c>
@@ -8173,16 +10869,34 @@
         <v>273</v>
       </c>
       <c r="N145" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O145" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
-      <c r="B146" s="34"/>
-      <c r="C146" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P145" s="37"/>
+      <c r="Q145" s="32"/>
+      <c r="R145" s="32"/>
+      <c r="S145" s="32"/>
+      <c r="T145" s="32"/>
+      <c r="U145" s="32"/>
+      <c r="V145" s="32"/>
+      <c r="W145" s="32"/>
+      <c r="X145" s="32"/>
+      <c r="Y145" s="32"/>
+      <c r="Z145" s="32"/>
+      <c r="AA145" s="32"/>
+      <c r="AB145" s="32"/>
+      <c r="AC145" s="32"/>
+      <c r="AD145" s="32"/>
+      <c r="AE145" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="45"/>
       <c r="D146" s="14" t="s">
         <v>36</v>
       </c>
@@ -8214,16 +10928,34 @@
         <v>283</v>
       </c>
       <c r="N146" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O146" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="32"/>
+      <c r="R146" s="32"/>
+      <c r="S146" s="32"/>
+      <c r="T146" s="32"/>
+      <c r="U146" s="32"/>
+      <c r="V146" s="32"/>
+      <c r="W146" s="32"/>
+      <c r="X146" s="32"/>
+      <c r="Y146" s="32"/>
+      <c r="Z146" s="32"/>
+      <c r="AA146" s="32"/>
+      <c r="AB146" s="32"/>
+      <c r="AC146" s="32"/>
+      <c r="AD146" s="32"/>
+      <c r="AE146" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A147" s="40"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="45"/>
       <c r="D147" s="14" t="s">
         <v>39</v>
       </c>
@@ -8255,16 +10987,34 @@
         <v>246</v>
       </c>
       <c r="N147" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O147" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P147" s="37"/>
+      <c r="Q147" s="32"/>
+      <c r="R147" s="32"/>
+      <c r="S147" s="32"/>
+      <c r="T147" s="32"/>
+      <c r="U147" s="32"/>
+      <c r="V147" s="32"/>
+      <c r="W147" s="32"/>
+      <c r="X147" s="32"/>
+      <c r="Y147" s="32"/>
+      <c r="Z147" s="32"/>
+      <c r="AA147" s="32"/>
+      <c r="AB147" s="32"/>
+      <c r="AC147" s="32"/>
+      <c r="AD147" s="32"/>
+      <c r="AE147" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="43"/>
+      <c r="C148" s="45"/>
       <c r="D148" s="14" t="s">
         <v>42</v>
       </c>
@@ -8296,16 +11046,34 @@
         <v>248</v>
       </c>
       <c r="N148" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O148" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P148" s="37"/>
+      <c r="Q148" s="32"/>
+      <c r="R148" s="32"/>
+      <c r="S148" s="32"/>
+      <c r="T148" s="32"/>
+      <c r="U148" s="32"/>
+      <c r="V148" s="32"/>
+      <c r="W148" s="32"/>
+      <c r="X148" s="32"/>
+      <c r="Y148" s="32"/>
+      <c r="Z148" s="32"/>
+      <c r="AA148" s="32"/>
+      <c r="AB148" s="32"/>
+      <c r="AC148" s="32"/>
+      <c r="AD148" s="32"/>
+      <c r="AE148" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="45"/>
       <c r="D149" s="14" t="s">
         <v>45</v>
       </c>
@@ -8337,16 +11105,34 @@
         <v>144</v>
       </c>
       <c r="N149" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O149" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P149" s="37"/>
+      <c r="Q149" s="32"/>
+      <c r="R149" s="32"/>
+      <c r="S149" s="32"/>
+      <c r="T149" s="32"/>
+      <c r="U149" s="32"/>
+      <c r="V149" s="32"/>
+      <c r="W149" s="32"/>
+      <c r="X149" s="32"/>
+      <c r="Y149" s="32"/>
+      <c r="Z149" s="32"/>
+      <c r="AA149" s="32"/>
+      <c r="AB149" s="32"/>
+      <c r="AC149" s="32"/>
+      <c r="AD149" s="32"/>
+      <c r="AE149" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="45"/>
       <c r="D150" s="14" t="s">
         <v>45</v>
       </c>
@@ -8378,16 +11164,34 @@
         <v>146</v>
       </c>
       <c r="N150" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O150" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P150" s="37"/>
+      <c r="Q150" s="32"/>
+      <c r="R150" s="32"/>
+      <c r="S150" s="32"/>
+      <c r="T150" s="32"/>
+      <c r="U150" s="32"/>
+      <c r="V150" s="32"/>
+      <c r="W150" s="32"/>
+      <c r="X150" s="32"/>
+      <c r="Y150" s="32"/>
+      <c r="Z150" s="32"/>
+      <c r="AA150" s="32"/>
+      <c r="AB150" s="32"/>
+      <c r="AC150" s="32"/>
+      <c r="AD150" s="32"/>
+      <c r="AE150" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="45"/>
       <c r="D151" s="14" t="s">
         <v>45</v>
       </c>
@@ -8419,16 +11223,34 @@
         <v>106</v>
       </c>
       <c r="N151" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O151" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P151" s="37"/>
+      <c r="Q151" s="32"/>
+      <c r="R151" s="32"/>
+      <c r="S151" s="32"/>
+      <c r="T151" s="32"/>
+      <c r="U151" s="32"/>
+      <c r="V151" s="32"/>
+      <c r="W151" s="32"/>
+      <c r="X151" s="32"/>
+      <c r="Y151" s="32"/>
+      <c r="Z151" s="32"/>
+      <c r="AA151" s="32"/>
+      <c r="AB151" s="32"/>
+      <c r="AC151" s="32"/>
+      <c r="AD151" s="32"/>
+      <c r="AE151" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A152" s="40"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="45"/>
       <c r="D152" s="14" t="s">
         <v>59</v>
       </c>
@@ -8460,16 +11282,34 @@
         <v>110</v>
       </c>
       <c r="N152" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O152" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P152" s="37"/>
+      <c r="Q152" s="32"/>
+      <c r="R152" s="32"/>
+      <c r="S152" s="32"/>
+      <c r="T152" s="32"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="32"/>
+      <c r="W152" s="32"/>
+      <c r="X152" s="32"/>
+      <c r="Y152" s="32"/>
+      <c r="Z152" s="32"/>
+      <c r="AA152" s="32"/>
+      <c r="AB152" s="32"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="32"/>
+      <c r="AE152" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="43"/>
+      <c r="C153" s="45"/>
       <c r="D153" s="14" t="s">
         <v>62</v>
       </c>
@@ -8501,16 +11341,34 @@
         <v>112</v>
       </c>
       <c r="N153" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O153" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P153" s="37"/>
+      <c r="Q153" s="32"/>
+      <c r="R153" s="32"/>
+      <c r="S153" s="32"/>
+      <c r="T153" s="32"/>
+      <c r="U153" s="32"/>
+      <c r="V153" s="32"/>
+      <c r="W153" s="32"/>
+      <c r="X153" s="32"/>
+      <c r="Y153" s="32"/>
+      <c r="Z153" s="32"/>
+      <c r="AA153" s="32"/>
+      <c r="AB153" s="32"/>
+      <c r="AC153" s="32"/>
+      <c r="AD153" s="32"/>
+      <c r="AE153" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A154" s="40"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="45"/>
       <c r="D154" s="14" t="s">
         <v>65</v>
       </c>
@@ -8542,16 +11400,34 @@
         <v>114</v>
       </c>
       <c r="N154" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O154" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P154" s="37"/>
+      <c r="Q154" s="32"/>
+      <c r="R154" s="32"/>
+      <c r="S154" s="32"/>
+      <c r="T154" s="32"/>
+      <c r="U154" s="32"/>
+      <c r="V154" s="32"/>
+      <c r="W154" s="32"/>
+      <c r="X154" s="32"/>
+      <c r="Y154" s="32"/>
+      <c r="Z154" s="32"/>
+      <c r="AA154" s="32"/>
+      <c r="AB154" s="32"/>
+      <c r="AC154" s="32"/>
+      <c r="AD154" s="32"/>
+      <c r="AE154" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="40"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="14" t="s">
         <v>67</v>
       </c>
@@ -8583,16 +11459,34 @@
         <v>293</v>
       </c>
       <c r="N155" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O155" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P155" s="37"/>
+      <c r="Q155" s="32"/>
+      <c r="R155" s="32"/>
+      <c r="S155" s="32"/>
+      <c r="T155" s="32"/>
+      <c r="U155" s="32"/>
+      <c r="V155" s="32"/>
+      <c r="W155" s="32"/>
+      <c r="X155" s="32"/>
+      <c r="Y155" s="32"/>
+      <c r="Z155" s="32"/>
+      <c r="AA155" s="32"/>
+      <c r="AB155" s="32"/>
+      <c r="AC155" s="32"/>
+      <c r="AD155" s="32"/>
+      <c r="AE155" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="40"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="45"/>
       <c r="D156" s="14" t="s">
         <v>70</v>
       </c>
@@ -8624,16 +11518,34 @@
         <v>295</v>
       </c>
       <c r="N156" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O156" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
-      <c r="B157" s="34"/>
-      <c r="C157" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P156" s="37"/>
+      <c r="Q156" s="32"/>
+      <c r="R156" s="32"/>
+      <c r="S156" s="32"/>
+      <c r="T156" s="32"/>
+      <c r="U156" s="32"/>
+      <c r="V156" s="32"/>
+      <c r="W156" s="32"/>
+      <c r="X156" s="32"/>
+      <c r="Y156" s="32"/>
+      <c r="Z156" s="32"/>
+      <c r="AA156" s="32"/>
+      <c r="AB156" s="32"/>
+      <c r="AC156" s="32"/>
+      <c r="AD156" s="32"/>
+      <c r="AE156" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="45"/>
       <c r="D157" s="14" t="s">
         <v>73</v>
       </c>
@@ -8665,16 +11577,34 @@
         <v>297</v>
       </c>
       <c r="N157" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O157" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P157" s="37"/>
+      <c r="Q157" s="32"/>
+      <c r="R157" s="32"/>
+      <c r="S157" s="32"/>
+      <c r="T157" s="32"/>
+      <c r="U157" s="32"/>
+      <c r="V157" s="32"/>
+      <c r="W157" s="32"/>
+      <c r="X157" s="32"/>
+      <c r="Y157" s="32"/>
+      <c r="Z157" s="32"/>
+      <c r="AA157" s="32"/>
+      <c r="AB157" s="32"/>
+      <c r="AC157" s="32"/>
+      <c r="AD157" s="32"/>
+      <c r="AE157" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="40"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="45"/>
       <c r="D158" s="14" t="s">
         <v>76</v>
       </c>
@@ -8704,16 +11634,34 @@
         <v>299</v>
       </c>
       <c r="N158" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O158" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="34"/>
-      <c r="C159" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P158" s="37"/>
+      <c r="Q158" s="32"/>
+      <c r="R158" s="32"/>
+      <c r="S158" s="32"/>
+      <c r="T158" s="32"/>
+      <c r="U158" s="32"/>
+      <c r="V158" s="32"/>
+      <c r="W158" s="32"/>
+      <c r="X158" s="32"/>
+      <c r="Y158" s="32"/>
+      <c r="Z158" s="32"/>
+      <c r="AA158" s="32"/>
+      <c r="AB158" s="32"/>
+      <c r="AC158" s="32"/>
+      <c r="AD158" s="32"/>
+      <c r="AE158" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A159" s="40"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="45"/>
       <c r="D159" s="14" t="s">
         <v>79</v>
       </c>
@@ -8743,16 +11691,34 @@
         <v>301</v>
       </c>
       <c r="N159" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O159" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P159" s="37"/>
+      <c r="Q159" s="32"/>
+      <c r="R159" s="32"/>
+      <c r="S159" s="32"/>
+      <c r="T159" s="32"/>
+      <c r="U159" s="32"/>
+      <c r="V159" s="32"/>
+      <c r="W159" s="32"/>
+      <c r="X159" s="32"/>
+      <c r="Y159" s="32"/>
+      <c r="Z159" s="32"/>
+      <c r="AA159" s="32"/>
+      <c r="AB159" s="32"/>
+      <c r="AC159" s="32"/>
+      <c r="AD159" s="32"/>
+      <c r="AE159" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A160" s="40"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D160" s="14" t="s">
@@ -8786,16 +11752,34 @@
         <v>273</v>
       </c>
       <c r="N160" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O160" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P160" s="37"/>
+      <c r="Q160" s="32"/>
+      <c r="R160" s="32"/>
+      <c r="S160" s="32"/>
+      <c r="T160" s="32"/>
+      <c r="U160" s="32"/>
+      <c r="V160" s="32"/>
+      <c r="W160" s="32"/>
+      <c r="X160" s="32"/>
+      <c r="Y160" s="32"/>
+      <c r="Z160" s="32"/>
+      <c r="AA160" s="32"/>
+      <c r="AB160" s="32"/>
+      <c r="AC160" s="32"/>
+      <c r="AD160" s="32"/>
+      <c r="AE160" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A161" s="40"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="47"/>
       <c r="D161" s="14" t="s">
         <v>85</v>
       </c>
@@ -8825,16 +11809,34 @@
       </c>
       <c r="M161" s="18"/>
       <c r="N161" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O161" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" s="32"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P161" s="37"/>
+      <c r="Q161" s="32"/>
+      <c r="R161" s="32"/>
+      <c r="S161" s="32"/>
+      <c r="T161" s="32"/>
+      <c r="U161" s="32"/>
+      <c r="V161" s="32"/>
+      <c r="W161" s="32"/>
+      <c r="X161" s="32"/>
+      <c r="Y161" s="32"/>
+      <c r="Z161" s="32"/>
+      <c r="AA161" s="32"/>
+      <c r="AB161" s="32"/>
+      <c r="AC161" s="32"/>
+      <c r="AD161" s="32"/>
+      <c r="AE161" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A162" s="41"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="48"/>
       <c r="D162" s="16" t="s">
         <v>87</v>
       </c>
@@ -8866,21 +11868,39 @@
         <v>386</v>
       </c>
       <c r="N162" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O162" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" s="30">
+        <v>25</v>
+      </c>
+      <c r="P162" s="37"/>
+      <c r="Q162" s="32"/>
+      <c r="R162" s="32"/>
+      <c r="S162" s="32"/>
+      <c r="T162" s="32"/>
+      <c r="U162" s="32"/>
+      <c r="V162" s="32"/>
+      <c r="W162" s="32"/>
+      <c r="X162" s="32"/>
+      <c r="Y162" s="32"/>
+      <c r="Z162" s="32"/>
+      <c r="AA162" s="32"/>
+      <c r="AB162" s="32"/>
+      <c r="AC162" s="32"/>
+      <c r="AD162" s="32"/>
+      <c r="AE162" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A163" s="39">
         <v>8</v>
       </c>
-      <c r="B163" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>305</v>
+      <c r="B163" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="45" t="s">
+        <v>342</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>224</v>
@@ -8916,13 +11936,31 @@
         <v>1</v>
       </c>
       <c r="O163" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
-      <c r="B164" s="34"/>
-      <c r="C164" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P163" s="37"/>
+      <c r="Q163" s="32"/>
+      <c r="R163" s="32"/>
+      <c r="S163" s="32"/>
+      <c r="T163" s="32"/>
+      <c r="U163" s="32"/>
+      <c r="V163" s="32"/>
+      <c r="W163" s="32"/>
+      <c r="X163" s="32"/>
+      <c r="Y163" s="32"/>
+      <c r="Z163" s="32"/>
+      <c r="AA163" s="32"/>
+      <c r="AB163" s="32"/>
+      <c r="AC163" s="32"/>
+      <c r="AD163" s="32"/>
+      <c r="AE163" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A164" s="40"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="45"/>
       <c r="D164" s="6" t="s">
         <v>226</v>
       </c>
@@ -8957,15 +11995,33 @@
         <v>12</v>
       </c>
       <c r="O164" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P164" s="37"/>
+      <c r="Q164" s="32"/>
+      <c r="R164" s="32"/>
+      <c r="S164" s="32"/>
+      <c r="T164" s="32"/>
+      <c r="U164" s="32"/>
+      <c r="V164" s="32"/>
+      <c r="W164" s="32"/>
+      <c r="X164" s="32"/>
+      <c r="Y164" s="32"/>
+      <c r="Z164" s="32"/>
+      <c r="AA164" s="32"/>
+      <c r="AB164" s="32"/>
+      <c r="AC164" s="32"/>
+      <c r="AD164" s="32"/>
+      <c r="AE164" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A165" s="40"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="6" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>18</v>
@@ -8994,19 +12050,37 @@
       <c r="M165" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N165" s="22" t="s">
-        <v>310</v>
+      <c r="N165" s="18">
+        <v>123456789</v>
       </c>
       <c r="O165" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P165" s="37"/>
+      <c r="Q165" s="32"/>
+      <c r="R165" s="32"/>
+      <c r="S165" s="32"/>
+      <c r="T165" s="32"/>
+      <c r="U165" s="32"/>
+      <c r="V165" s="32"/>
+      <c r="W165" s="32"/>
+      <c r="X165" s="32"/>
+      <c r="Y165" s="32"/>
+      <c r="Z165" s="32"/>
+      <c r="AA165" s="32"/>
+      <c r="AB165" s="32"/>
+      <c r="AC165" s="32"/>
+      <c r="AD165" s="32"/>
+      <c r="AE165" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A166" s="40"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="45"/>
       <c r="D166" s="6" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>18</v>
@@ -9035,19 +12109,37 @@
       <c r="M166" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N166" s="22" t="s">
-        <v>313</v>
+      <c r="N166" s="18">
+        <v>1234567890</v>
       </c>
       <c r="O166" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P166" s="37"/>
+      <c r="Q166" s="32"/>
+      <c r="R166" s="32"/>
+      <c r="S166" s="32"/>
+      <c r="T166" s="32"/>
+      <c r="U166" s="32"/>
+      <c r="V166" s="32"/>
+      <c r="W166" s="32"/>
+      <c r="X166" s="32"/>
+      <c r="Y166" s="32"/>
+      <c r="Z166" s="32"/>
+      <c r="AA166" s="32"/>
+      <c r="AB166" s="32"/>
+      <c r="AC166" s="32"/>
+      <c r="AD166" s="32"/>
+      <c r="AE166" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A167" s="40"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="45"/>
       <c r="D167" s="6" t="s">
-        <v>314</v>
+        <v>130</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>47</v>
@@ -9076,18 +12168,36 @@
       <c r="M167" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N167" s="22" t="s">
-        <v>316</v>
+      <c r="N167" s="18">
+        <v>12345678901</v>
       </c>
       <c r="O167" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="B168" s="34"/>
-      <c r="C168" s="36" t="s">
-        <v>317</v>
+        <v>25</v>
+      </c>
+      <c r="P167" s="37"/>
+      <c r="Q167" s="32"/>
+      <c r="R167" s="32"/>
+      <c r="S167" s="32"/>
+      <c r="T167" s="32"/>
+      <c r="U167" s="32"/>
+      <c r="V167" s="32"/>
+      <c r="W167" s="32"/>
+      <c r="X167" s="32"/>
+      <c r="Y167" s="32"/>
+      <c r="Z167" s="32"/>
+      <c r="AA167" s="32"/>
+      <c r="AB167" s="32"/>
+      <c r="AC167" s="32"/>
+      <c r="AD167" s="32"/>
+      <c r="AE167" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A168" s="40"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="D168" s="14" t="s">
         <v>28</v>
@@ -9120,16 +12230,34 @@
         <v>24</v>
       </c>
       <c r="N168" s="18" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O168" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P168" s="37"/>
+      <c r="Q168" s="32"/>
+      <c r="R168" s="32"/>
+      <c r="S168" s="32"/>
+      <c r="T168" s="32"/>
+      <c r="U168" s="32"/>
+      <c r="V168" s="32"/>
+      <c r="W168" s="32"/>
+      <c r="X168" s="32"/>
+      <c r="Y168" s="32"/>
+      <c r="Z168" s="32"/>
+      <c r="AA168" s="32"/>
+      <c r="AB168" s="32"/>
+      <c r="AC168" s="32"/>
+      <c r="AD168" s="32"/>
+      <c r="AE168" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A169" s="40"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="45"/>
       <c r="D169" s="14" t="s">
         <v>31</v>
       </c>
@@ -9161,16 +12289,34 @@
         <v>24</v>
       </c>
       <c r="N169" s="18" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="O169" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="31"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P169" s="37"/>
+      <c r="Q169" s="32"/>
+      <c r="R169" s="32"/>
+      <c r="S169" s="32"/>
+      <c r="T169" s="32"/>
+      <c r="U169" s="32"/>
+      <c r="V169" s="32"/>
+      <c r="W169" s="32"/>
+      <c r="X169" s="32"/>
+      <c r="Y169" s="32"/>
+      <c r="Z169" s="32"/>
+      <c r="AA169" s="32"/>
+      <c r="AB169" s="32"/>
+      <c r="AC169" s="32"/>
+      <c r="AD169" s="32"/>
+      <c r="AE169" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A170" s="40"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="45"/>
       <c r="D170" s="14" t="s">
         <v>34</v>
       </c>
@@ -9202,16 +12348,34 @@
         <v>24</v>
       </c>
       <c r="N170" s="18">
-        <v>9876543210</v>
+        <v>1234567890</v>
       </c>
       <c r="O170" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P170" s="37"/>
+      <c r="Q170" s="32"/>
+      <c r="R170" s="32"/>
+      <c r="S170" s="32"/>
+      <c r="T170" s="32"/>
+      <c r="U170" s="32"/>
+      <c r="V170" s="32"/>
+      <c r="W170" s="32"/>
+      <c r="X170" s="32"/>
+      <c r="Y170" s="32"/>
+      <c r="Z170" s="32"/>
+      <c r="AA170" s="32"/>
+      <c r="AB170" s="32"/>
+      <c r="AC170" s="32"/>
+      <c r="AD170" s="32"/>
+      <c r="AE170" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A171" s="40"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="45"/>
       <c r="D171" s="14" t="s">
         <v>36</v>
       </c>
@@ -9243,16 +12407,34 @@
         <v>24</v>
       </c>
       <c r="N171" s="18" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="O171" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P171" s="37"/>
+      <c r="Q171" s="32"/>
+      <c r="R171" s="32"/>
+      <c r="S171" s="32"/>
+      <c r="T171" s="32"/>
+      <c r="U171" s="32"/>
+      <c r="V171" s="32"/>
+      <c r="W171" s="32"/>
+      <c r="X171" s="32"/>
+      <c r="Y171" s="32"/>
+      <c r="Z171" s="32"/>
+      <c r="AA171" s="32"/>
+      <c r="AB171" s="32"/>
+      <c r="AC171" s="32"/>
+      <c r="AD171" s="32"/>
+      <c r="AE171" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A172" s="40"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="45"/>
       <c r="D172" s="14" t="s">
         <v>39</v>
       </c>
@@ -9284,16 +12466,34 @@
         <v>24</v>
       </c>
       <c r="N172" s="18" t="s">
-        <v>205</v>
+        <v>359</v>
       </c>
       <c r="O172" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="31"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="32"/>
+      <c r="R172" s="32"/>
+      <c r="S172" s="32"/>
+      <c r="T172" s="32"/>
+      <c r="U172" s="32"/>
+      <c r="V172" s="32"/>
+      <c r="W172" s="32"/>
+      <c r="X172" s="32"/>
+      <c r="Y172" s="32"/>
+      <c r="Z172" s="32"/>
+      <c r="AA172" s="32"/>
+      <c r="AB172" s="32"/>
+      <c r="AC172" s="32"/>
+      <c r="AD172" s="32"/>
+      <c r="AE172" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A173" s="40"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="45"/>
       <c r="D173" s="14" t="s">
         <v>42</v>
       </c>
@@ -9325,21 +12525,39 @@
         <v>24</v>
       </c>
       <c r="N173" s="18" t="s">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="O173" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="31"/>
-      <c r="B174" s="34"/>
-      <c r="C174" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P173" s="37"/>
+      <c r="Q173" s="32"/>
+      <c r="R173" s="32"/>
+      <c r="S173" s="32"/>
+      <c r="T173" s="32"/>
+      <c r="U173" s="32"/>
+      <c r="V173" s="32"/>
+      <c r="W173" s="32"/>
+      <c r="X173" s="32"/>
+      <c r="Y173" s="32"/>
+      <c r="Z173" s="32"/>
+      <c r="AA173" s="32"/>
+      <c r="AB173" s="32"/>
+      <c r="AC173" s="32"/>
+      <c r="AD173" s="32"/>
+      <c r="AE173" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A174" s="40"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="45"/>
       <c r="D174" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>327</v>
@@ -9365,22 +12583,40 @@
       <c r="M174" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N174" s="8" t="s">
-        <v>104</v>
+      <c r="N174" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="O174" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="31"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P174" s="37"/>
+      <c r="Q174" s="32"/>
+      <c r="R174" s="32"/>
+      <c r="S174" s="32"/>
+      <c r="T174" s="32"/>
+      <c r="U174" s="32"/>
+      <c r="V174" s="32"/>
+      <c r="W174" s="32"/>
+      <c r="X174" s="32"/>
+      <c r="Y174" s="32"/>
+      <c r="Z174" s="32"/>
+      <c r="AA174" s="32"/>
+      <c r="AB174" s="32"/>
+      <c r="AC174" s="32"/>
+      <c r="AD174" s="32"/>
+      <c r="AE174" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A175" s="40"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="45"/>
       <c r="D175" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>328</v>
@@ -9406,22 +12642,40 @@
       <c r="M175" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N175" s="8" t="s">
-        <v>106</v>
+      <c r="N175" s="18" t="s">
+        <v>365</v>
       </c>
       <c r="O175" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="31"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P175" s="37"/>
+      <c r="Q175" s="32"/>
+      <c r="R175" s="32"/>
+      <c r="S175" s="32"/>
+      <c r="T175" s="32"/>
+      <c r="U175" s="32"/>
+      <c r="V175" s="32"/>
+      <c r="W175" s="32"/>
+      <c r="X175" s="32"/>
+      <c r="Y175" s="32"/>
+      <c r="Z175" s="32"/>
+      <c r="AA175" s="32"/>
+      <c r="AB175" s="32"/>
+      <c r="AC175" s="32"/>
+      <c r="AD175" s="32"/>
+      <c r="AE175" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A176" s="40"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="45"/>
       <c r="D176" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>329</v>
@@ -9447,22 +12701,40 @@
       <c r="M176" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N176" s="8" t="s">
-        <v>108</v>
+      <c r="N176" s="18" t="s">
+        <v>367</v>
       </c>
       <c r="O176" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="31"/>
-      <c r="B177" s="34"/>
-      <c r="C177" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P176" s="37"/>
+      <c r="Q176" s="32"/>
+      <c r="R176" s="32"/>
+      <c r="S176" s="32"/>
+      <c r="T176" s="32"/>
+      <c r="U176" s="32"/>
+      <c r="V176" s="32"/>
+      <c r="W176" s="32"/>
+      <c r="X176" s="32"/>
+      <c r="Y176" s="32"/>
+      <c r="Z176" s="32"/>
+      <c r="AA176" s="32"/>
+      <c r="AB176" s="32"/>
+      <c r="AC176" s="32"/>
+      <c r="AD176" s="32"/>
+      <c r="AE176" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A177" s="40"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="45"/>
       <c r="D177" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>330</v>
@@ -9488,22 +12760,40 @@
       <c r="M177" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N177" s="8" t="s">
-        <v>110</v>
+      <c r="N177" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="O177" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="31"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P177" s="37"/>
+      <c r="Q177" s="32"/>
+      <c r="R177" s="32"/>
+      <c r="S177" s="32"/>
+      <c r="T177" s="32"/>
+      <c r="U177" s="32"/>
+      <c r="V177" s="32"/>
+      <c r="W177" s="32"/>
+      <c r="X177" s="32"/>
+      <c r="Y177" s="32"/>
+      <c r="Z177" s="32"/>
+      <c r="AA177" s="32"/>
+      <c r="AB177" s="32"/>
+      <c r="AC177" s="32"/>
+      <c r="AD177" s="32"/>
+      <c r="AE177" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A178" s="40"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="45"/>
       <c r="D178" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>331</v>
@@ -9529,22 +12819,40 @@
       <c r="M178" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N178" s="19" t="s">
-        <v>112</v>
+      <c r="N178" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="O178" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="31"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P178" s="37"/>
+      <c r="Q178" s="32"/>
+      <c r="R178" s="32"/>
+      <c r="S178" s="32"/>
+      <c r="T178" s="32"/>
+      <c r="U178" s="32"/>
+      <c r="V178" s="32"/>
+      <c r="W178" s="32"/>
+      <c r="X178" s="32"/>
+      <c r="Y178" s="32"/>
+      <c r="Z178" s="32"/>
+      <c r="AA178" s="32"/>
+      <c r="AB178" s="32"/>
+      <c r="AC178" s="32"/>
+      <c r="AD178" s="32"/>
+      <c r="AE178" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A179" s="40"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="45"/>
       <c r="D179" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>332</v>
@@ -9570,22 +12878,40 @@
       <c r="M179" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N179" s="8" t="s">
-        <v>114</v>
+      <c r="N179" s="18">
+        <v>1.2345678899999999</v>
       </c>
       <c r="O179" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="31"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P179" s="37"/>
+      <c r="Q179" s="32"/>
+      <c r="R179" s="32"/>
+      <c r="S179" s="32"/>
+      <c r="T179" s="32"/>
+      <c r="U179" s="32"/>
+      <c r="V179" s="32"/>
+      <c r="W179" s="32"/>
+      <c r="X179" s="32"/>
+      <c r="Y179" s="32"/>
+      <c r="Z179" s="32"/>
+      <c r="AA179" s="32"/>
+      <c r="AB179" s="32"/>
+      <c r="AC179" s="32"/>
+      <c r="AD179" s="32"/>
+      <c r="AE179" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="40"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="45"/>
       <c r="D180" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>333</v>
@@ -9611,23 +12937,39 @@
       <c r="M180" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N180" s="8" t="s">
-        <v>116</v>
+      <c r="N180" s="18" t="s">
+        <v>374</v>
       </c>
       <c r="O180" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
-      <c r="B181" s="34"/>
-      <c r="C181" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P180" s="37"/>
+      <c r="Q180" s="32"/>
+      <c r="R180" s="32"/>
+      <c r="S180" s="32"/>
+      <c r="T180" s="32"/>
+      <c r="U180" s="32"/>
+      <c r="V180" s="32"/>
+      <c r="W180" s="32"/>
+      <c r="X180" s="32"/>
+      <c r="Y180" s="32"/>
+      <c r="Z180" s="32"/>
+      <c r="AA180" s="32"/>
+      <c r="AB180" s="32"/>
+      <c r="AC180" s="32"/>
+      <c r="AD180" s="32"/>
+      <c r="AE180" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="40"/>
+      <c r="B181" s="43"/>
+      <c r="C181" s="45"/>
       <c r="D181" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E181" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="E181" s="15"/>
       <c r="F181" s="6" t="s">
         <v>334</v>
       </c>
@@ -9652,23 +12994,39 @@
       <c r="M181" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N181" s="8" t="s">
-        <v>118</v>
+      <c r="N181" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="O181" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="31"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P181" s="37"/>
+      <c r="Q181" s="32"/>
+      <c r="R181" s="32"/>
+      <c r="S181" s="32"/>
+      <c r="T181" s="32"/>
+      <c r="U181" s="32"/>
+      <c r="V181" s="32"/>
+      <c r="W181" s="32"/>
+      <c r="X181" s="32"/>
+      <c r="Y181" s="32"/>
+      <c r="Z181" s="32"/>
+      <c r="AA181" s="32"/>
+      <c r="AB181" s="32"/>
+      <c r="AC181" s="32"/>
+      <c r="AD181" s="32"/>
+      <c r="AE181" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="40"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="45"/>
       <c r="D182" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="E182" s="15"/>
       <c r="F182" s="6" t="s">
         <v>335</v>
       </c>
@@ -9693,17 +13051,35 @@
       <c r="M182" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N182" s="8" t="s">
-        <v>120</v>
+      <c r="N182" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="O182" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="31"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P182" s="37"/>
+      <c r="Q182" s="32"/>
+      <c r="R182" s="32"/>
+      <c r="S182" s="32"/>
+      <c r="T182" s="32"/>
+      <c r="U182" s="32"/>
+      <c r="V182" s="32"/>
+      <c r="W182" s="32"/>
+      <c r="X182" s="32"/>
+      <c r="Y182" s="32"/>
+      <c r="Z182" s="32"/>
+      <c r="AA182" s="32"/>
+      <c r="AB182" s="32"/>
+      <c r="AC182" s="32"/>
+      <c r="AD182" s="32"/>
+      <c r="AE182" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="40"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="45"/>
       <c r="D183" s="14" t="s">
         <v>76</v>
       </c>
@@ -9732,17 +13108,35 @@
       <c r="M183" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N183" s="8" t="s">
-        <v>337</v>
+      <c r="N183" s="18" t="s">
+        <v>380</v>
       </c>
       <c r="O183" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="31"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="36"/>
+        <v>25</v>
+      </c>
+      <c r="P183" s="37"/>
+      <c r="Q183" s="32"/>
+      <c r="R183" s="32"/>
+      <c r="S183" s="32"/>
+      <c r="T183" s="32"/>
+      <c r="U183" s="32"/>
+      <c r="V183" s="32"/>
+      <c r="W183" s="32"/>
+      <c r="X183" s="32"/>
+      <c r="Y183" s="32"/>
+      <c r="Z183" s="32"/>
+      <c r="AA183" s="32"/>
+      <c r="AB183" s="32"/>
+      <c r="AC183" s="32"/>
+      <c r="AD183" s="32"/>
+      <c r="AE183" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A184" s="40"/>
+      <c r="B184" s="43"/>
+      <c r="C184" s="45"/>
       <c r="D184" s="14" t="s">
         <v>79</v>
       </c>
@@ -9771,17 +13165,35 @@
       <c r="M184" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N184" s="8" t="s">
-        <v>124</v>
+      <c r="N184" s="18" t="s">
+        <v>382</v>
       </c>
       <c r="O184" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P184" s="37"/>
+      <c r="Q184" s="32"/>
+      <c r="R184" s="32"/>
+      <c r="S184" s="32"/>
+      <c r="T184" s="32"/>
+      <c r="U184" s="32"/>
+      <c r="V184" s="32"/>
+      <c r="W184" s="32"/>
+      <c r="X184" s="32"/>
+      <c r="Y184" s="32"/>
+      <c r="Z184" s="32"/>
+      <c r="AA184" s="32"/>
+      <c r="AB184" s="32"/>
+      <c r="AC184" s="32"/>
+      <c r="AD184" s="32"/>
+      <c r="AE184" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A185" s="40"/>
+      <c r="B185" s="43"/>
+      <c r="C185" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D185" s="14" t="s">
@@ -9815,16 +13227,34 @@
         <v>24</v>
       </c>
       <c r="N185" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O185" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P185" s="37"/>
+      <c r="Q185" s="32"/>
+      <c r="R185" s="32"/>
+      <c r="S185" s="32"/>
+      <c r="T185" s="32"/>
+      <c r="U185" s="32"/>
+      <c r="V185" s="32"/>
+      <c r="W185" s="32"/>
+      <c r="X185" s="32"/>
+      <c r="Y185" s="32"/>
+      <c r="Z185" s="32"/>
+      <c r="AA185" s="32"/>
+      <c r="AB185" s="32"/>
+      <c r="AC185" s="32"/>
+      <c r="AD185" s="32"/>
+      <c r="AE185" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A186" s="40"/>
+      <c r="B186" s="43"/>
+      <c r="C186" s="47"/>
       <c r="D186" s="14" t="s">
         <v>85</v>
       </c>
@@ -9857,13 +13287,31 @@
       </c>
       <c r="N186" s="18"/>
       <c r="O186" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="32"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="39"/>
+        <v>25</v>
+      </c>
+      <c r="P186" s="37"/>
+      <c r="Q186" s="32"/>
+      <c r="R186" s="32"/>
+      <c r="S186" s="32"/>
+      <c r="T186" s="32"/>
+      <c r="U186" s="32"/>
+      <c r="V186" s="32"/>
+      <c r="W186" s="32"/>
+      <c r="X186" s="32"/>
+      <c r="Y186" s="32"/>
+      <c r="Z186" s="32"/>
+      <c r="AA186" s="32"/>
+      <c r="AB186" s="32"/>
+      <c r="AC186" s="32"/>
+      <c r="AD186" s="32"/>
+      <c r="AE186" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A187" s="41"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="48"/>
       <c r="D187" s="16" t="s">
         <v>87</v>
       </c>
@@ -9898,18 +13346,36 @@
         <v>386</v>
       </c>
       <c r="O187" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="30">
+        <v>25</v>
+      </c>
+      <c r="P187" s="37"/>
+      <c r="Q187" s="32"/>
+      <c r="R187" s="32"/>
+      <c r="S187" s="32"/>
+      <c r="T187" s="32"/>
+      <c r="U187" s="32"/>
+      <c r="V187" s="32"/>
+      <c r="W187" s="32"/>
+      <c r="X187" s="32"/>
+      <c r="Y187" s="32"/>
+      <c r="Z187" s="32"/>
+      <c r="AA187" s="32"/>
+      <c r="AB187" s="32"/>
+      <c r="AC187" s="32"/>
+      <c r="AD187" s="32"/>
+      <c r="AE187" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A188" s="39">
         <v>9</v>
       </c>
-      <c r="B188" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" s="36" t="s">
-        <v>342</v>
+      <c r="B188" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="45" t="s">
+        <v>305</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>224</v>
@@ -9942,16 +13408,34 @@
         <v>24</v>
       </c>
       <c r="N188" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O188" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="31"/>
-      <c r="B189" s="34"/>
-      <c r="C189" s="36"/>
+      <c r="P188" s="37"/>
+      <c r="Q188" s="32"/>
+      <c r="R188" s="32"/>
+      <c r="S188" s="32"/>
+      <c r="T188" s="32"/>
+      <c r="U188" s="32"/>
+      <c r="V188" s="32"/>
+      <c r="W188" s="32"/>
+      <c r="X188" s="32"/>
+      <c r="Y188" s="32"/>
+      <c r="Z188" s="32"/>
+      <c r="AA188" s="32"/>
+      <c r="AB188" s="32"/>
+      <c r="AC188" s="32"/>
+      <c r="AD188" s="32"/>
+      <c r="AE188" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A189" s="40"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="45"/>
       <c r="D189" s="6" t="s">
         <v>226</v>
       </c>
@@ -9983,18 +13467,36 @@
         <v>24</v>
       </c>
       <c r="N189" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O189" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" s="31"/>
-      <c r="B190" s="34"/>
-      <c r="C190" s="36"/>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="32"/>
+      <c r="R189" s="32"/>
+      <c r="S189" s="32"/>
+      <c r="T189" s="32"/>
+      <c r="U189" s="32"/>
+      <c r="V189" s="32"/>
+      <c r="W189" s="32"/>
+      <c r="X189" s="32"/>
+      <c r="Y189" s="32"/>
+      <c r="Z189" s="32"/>
+      <c r="AA189" s="32"/>
+      <c r="AB189" s="32"/>
+      <c r="AC189" s="32"/>
+      <c r="AD189" s="32"/>
+      <c r="AE189" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="40"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="45"/>
       <c r="D190" s="6" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>18</v>
@@ -10024,18 +13526,36 @@
         <v>24</v>
       </c>
       <c r="N190" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O190" s="18">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" s="31"/>
-      <c r="B191" s="34"/>
-      <c r="C191" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O190" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="P190" s="37"/>
+      <c r="Q190" s="32"/>
+      <c r="R190" s="32"/>
+      <c r="S190" s="32"/>
+      <c r="T190" s="32"/>
+      <c r="U190" s="32"/>
+      <c r="V190" s="32"/>
+      <c r="W190" s="32"/>
+      <c r="X190" s="32"/>
+      <c r="Y190" s="32"/>
+      <c r="Z190" s="32"/>
+      <c r="AA190" s="32"/>
+      <c r="AB190" s="32"/>
+      <c r="AC190" s="32"/>
+      <c r="AD190" s="32"/>
+      <c r="AE190" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="40"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="45"/>
       <c r="D191" s="6" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>18</v>
@@ -10065,18 +13585,36 @@
         <v>24</v>
       </c>
       <c r="N191" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O191" s="18">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" s="31"/>
-      <c r="B192" s="34"/>
-      <c r="C192" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O191" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="P191" s="37"/>
+      <c r="Q191" s="32"/>
+      <c r="R191" s="32"/>
+      <c r="S191" s="32"/>
+      <c r="T191" s="32"/>
+      <c r="U191" s="32"/>
+      <c r="V191" s="32"/>
+      <c r="W191" s="32"/>
+      <c r="X191" s="32"/>
+      <c r="Y191" s="32"/>
+      <c r="Z191" s="32"/>
+      <c r="AA191" s="32"/>
+      <c r="AB191" s="32"/>
+      <c r="AC191" s="32"/>
+      <c r="AD191" s="32"/>
+      <c r="AE191" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="40"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="45"/>
       <c r="D192" s="6" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>47</v>
@@ -10106,17 +13644,35 @@
         <v>24</v>
       </c>
       <c r="N192" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O192" s="18">
-        <v>12345678901</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" s="31"/>
-      <c r="B193" s="34"/>
-      <c r="C193" s="36" t="s">
-        <v>350</v>
+        <v>26</v>
+      </c>
+      <c r="O192" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="32"/>
+      <c r="R192" s="32"/>
+      <c r="S192" s="32"/>
+      <c r="T192" s="32"/>
+      <c r="U192" s="32"/>
+      <c r="V192" s="32"/>
+      <c r="W192" s="32"/>
+      <c r="X192" s="32"/>
+      <c r="Y192" s="32"/>
+      <c r="Z192" s="32"/>
+      <c r="AA192" s="32"/>
+      <c r="AB192" s="32"/>
+      <c r="AC192" s="32"/>
+      <c r="AD192" s="32"/>
+      <c r="AE192" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A193" s="40"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="45" t="s">
+        <v>317</v>
       </c>
       <c r="D193" s="14" t="s">
         <v>28</v>
@@ -10149,16 +13705,34 @@
         <v>24</v>
       </c>
       <c r="N193" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O193" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" s="31"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="36"/>
+        <v>319</v>
+      </c>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="32"/>
+      <c r="R193" s="32"/>
+      <c r="S193" s="32"/>
+      <c r="T193" s="32"/>
+      <c r="U193" s="32"/>
+      <c r="V193" s="32"/>
+      <c r="W193" s="32"/>
+      <c r="X193" s="32"/>
+      <c r="Y193" s="32"/>
+      <c r="Z193" s="32"/>
+      <c r="AA193" s="32"/>
+      <c r="AB193" s="32"/>
+      <c r="AC193" s="32"/>
+      <c r="AD193" s="32"/>
+      <c r="AE193" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A194" s="40"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="45"/>
       <c r="D194" s="14" t="s">
         <v>31</v>
       </c>
@@ -10190,16 +13764,34 @@
         <v>24</v>
       </c>
       <c r="N194" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O194" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="31"/>
-      <c r="B195" s="34"/>
-      <c r="C195" s="36"/>
+        <v>321</v>
+      </c>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="32"/>
+      <c r="R194" s="32"/>
+      <c r="S194" s="32"/>
+      <c r="T194" s="32"/>
+      <c r="U194" s="32"/>
+      <c r="V194" s="32"/>
+      <c r="W194" s="32"/>
+      <c r="X194" s="32"/>
+      <c r="Y194" s="32"/>
+      <c r="Z194" s="32"/>
+      <c r="AA194" s="32"/>
+      <c r="AB194" s="32"/>
+      <c r="AC194" s="32"/>
+      <c r="AD194" s="32"/>
+      <c r="AE194" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A195" s="40"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="45"/>
       <c r="D195" s="14" t="s">
         <v>34</v>
       </c>
@@ -10231,16 +13823,34 @@
         <v>24</v>
       </c>
       <c r="N195" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O195" s="18">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" s="31"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="36"/>
+        <v>9876543210</v>
+      </c>
+      <c r="P195" s="37"/>
+      <c r="Q195" s="32"/>
+      <c r="R195" s="32"/>
+      <c r="S195" s="32"/>
+      <c r="T195" s="32"/>
+      <c r="U195" s="32"/>
+      <c r="V195" s="32"/>
+      <c r="W195" s="32"/>
+      <c r="X195" s="32"/>
+      <c r="Y195" s="32"/>
+      <c r="Z195" s="32"/>
+      <c r="AA195" s="32"/>
+      <c r="AB195" s="32"/>
+      <c r="AC195" s="32"/>
+      <c r="AD195" s="32"/>
+      <c r="AE195" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A196" s="40"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="45"/>
       <c r="D196" s="14" t="s">
         <v>36</v>
       </c>
@@ -10272,16 +13882,34 @@
         <v>24</v>
       </c>
       <c r="N196" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O196" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="31"/>
-      <c r="B197" s="34"/>
-      <c r="C197" s="36"/>
+        <v>324</v>
+      </c>
+      <c r="P196" s="37"/>
+      <c r="Q196" s="32"/>
+      <c r="R196" s="32"/>
+      <c r="S196" s="32"/>
+      <c r="T196" s="32"/>
+      <c r="U196" s="32"/>
+      <c r="V196" s="32"/>
+      <c r="W196" s="32"/>
+      <c r="X196" s="32"/>
+      <c r="Y196" s="32"/>
+      <c r="Z196" s="32"/>
+      <c r="AA196" s="32"/>
+      <c r="AB196" s="32"/>
+      <c r="AC196" s="32"/>
+      <c r="AD196" s="32"/>
+      <c r="AE196" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A197" s="40"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="45"/>
       <c r="D197" s="14" t="s">
         <v>39</v>
       </c>
@@ -10313,16 +13941,34 @@
         <v>24</v>
       </c>
       <c r="N197" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="31"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="36"/>
+        <v>205</v>
+      </c>
+      <c r="P197" s="37"/>
+      <c r="Q197" s="32"/>
+      <c r="R197" s="32"/>
+      <c r="S197" s="32"/>
+      <c r="T197" s="32"/>
+      <c r="U197" s="32"/>
+      <c r="V197" s="32"/>
+      <c r="W197" s="32"/>
+      <c r="X197" s="32"/>
+      <c r="Y197" s="32"/>
+      <c r="Z197" s="32"/>
+      <c r="AA197" s="32"/>
+      <c r="AB197" s="32"/>
+      <c r="AC197" s="32"/>
+      <c r="AD197" s="32"/>
+      <c r="AE197" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A198" s="40"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="45"/>
       <c r="D198" s="14" t="s">
         <v>42</v>
       </c>
@@ -10354,21 +14000,39 @@
         <v>24</v>
       </c>
       <c r="N198" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O198" s="18" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="31"/>
-      <c r="B199" s="34"/>
-      <c r="C199" s="36"/>
+        <v>207</v>
+      </c>
+      <c r="P198" s="37"/>
+      <c r="Q198" s="32"/>
+      <c r="R198" s="32"/>
+      <c r="S198" s="32"/>
+      <c r="T198" s="32"/>
+      <c r="U198" s="32"/>
+      <c r="V198" s="32"/>
+      <c r="W198" s="32"/>
+      <c r="X198" s="32"/>
+      <c r="Y198" s="32"/>
+      <c r="Z198" s="32"/>
+      <c r="AA198" s="32"/>
+      <c r="AB198" s="32"/>
+      <c r="AC198" s="32"/>
+      <c r="AD198" s="32"/>
+      <c r="AE198" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A199" s="40"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="45"/>
       <c r="D199" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>362</v>
@@ -10395,21 +14059,39 @@
         <v>24</v>
       </c>
       <c r="N199" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O199" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="31"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O199" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P199" s="37"/>
+      <c r="Q199" s="32"/>
+      <c r="R199" s="32"/>
+      <c r="S199" s="32"/>
+      <c r="T199" s="32"/>
+      <c r="U199" s="32"/>
+      <c r="V199" s="32"/>
+      <c r="W199" s="32"/>
+      <c r="X199" s="32"/>
+      <c r="Y199" s="32"/>
+      <c r="Z199" s="32"/>
+      <c r="AA199" s="32"/>
+      <c r="AB199" s="32"/>
+      <c r="AC199" s="32"/>
+      <c r="AD199" s="32"/>
+      <c r="AE199" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A200" s="40"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="45"/>
       <c r="D200" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>364</v>
@@ -10436,21 +14118,39 @@
         <v>24</v>
       </c>
       <c r="N200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O200" s="18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" s="31"/>
-      <c r="B201" s="34"/>
-      <c r="C201" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O200" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P200" s="37"/>
+      <c r="Q200" s="32"/>
+      <c r="R200" s="32"/>
+      <c r="S200" s="32"/>
+      <c r="T200" s="32"/>
+      <c r="U200" s="32"/>
+      <c r="V200" s="32"/>
+      <c r="W200" s="32"/>
+      <c r="X200" s="32"/>
+      <c r="Y200" s="32"/>
+      <c r="Z200" s="32"/>
+      <c r="AA200" s="32"/>
+      <c r="AB200" s="32"/>
+      <c r="AC200" s="32"/>
+      <c r="AD200" s="32"/>
+      <c r="AE200" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A201" s="40"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="45"/>
       <c r="D201" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>366</v>
@@ -10477,21 +14177,39 @@
         <v>24</v>
       </c>
       <c r="N201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O201" s="18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" s="31"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O201" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P201" s="37"/>
+      <c r="Q201" s="32"/>
+      <c r="R201" s="32"/>
+      <c r="S201" s="32"/>
+      <c r="T201" s="32"/>
+      <c r="U201" s="32"/>
+      <c r="V201" s="32"/>
+      <c r="W201" s="32"/>
+      <c r="X201" s="32"/>
+      <c r="Y201" s="32"/>
+      <c r="Z201" s="32"/>
+      <c r="AA201" s="32"/>
+      <c r="AB201" s="32"/>
+      <c r="AC201" s="32"/>
+      <c r="AD201" s="32"/>
+      <c r="AE201" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A202" s="40"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="45"/>
       <c r="D202" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>368</v>
@@ -10518,21 +14236,39 @@
         <v>24</v>
       </c>
       <c r="N202" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O202" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" s="31"/>
-      <c r="B203" s="34"/>
-      <c r="C203" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O202" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P202" s="37"/>
+      <c r="Q202" s="32"/>
+      <c r="R202" s="32"/>
+      <c r="S202" s="32"/>
+      <c r="T202" s="32"/>
+      <c r="U202" s="32"/>
+      <c r="V202" s="32"/>
+      <c r="W202" s="32"/>
+      <c r="X202" s="32"/>
+      <c r="Y202" s="32"/>
+      <c r="Z202" s="32"/>
+      <c r="AA202" s="32"/>
+      <c r="AB202" s="32"/>
+      <c r="AC202" s="32"/>
+      <c r="AD202" s="32"/>
+      <c r="AE202" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A203" s="40"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="45"/>
       <c r="D203" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>370</v>
@@ -10559,21 +14295,39 @@
         <v>24</v>
       </c>
       <c r="N203" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O203" s="23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="31"/>
-      <c r="B204" s="34"/>
-      <c r="C204" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O203" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P203" s="37"/>
+      <c r="Q203" s="32"/>
+      <c r="R203" s="32"/>
+      <c r="S203" s="32"/>
+      <c r="T203" s="32"/>
+      <c r="U203" s="32"/>
+      <c r="V203" s="32"/>
+      <c r="W203" s="32"/>
+      <c r="X203" s="32"/>
+      <c r="Y203" s="32"/>
+      <c r="Z203" s="32"/>
+      <c r="AA203" s="32"/>
+      <c r="AB203" s="32"/>
+      <c r="AC203" s="32"/>
+      <c r="AD203" s="32"/>
+      <c r="AE203" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A204" s="40"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="45"/>
       <c r="D204" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>372</v>
@@ -10600,21 +14354,39 @@
         <v>24</v>
       </c>
       <c r="N204" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O204" s="18">
-        <v>1.2345678899999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="31"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O204" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P204" s="37"/>
+      <c r="Q204" s="32"/>
+      <c r="R204" s="32"/>
+      <c r="S204" s="32"/>
+      <c r="T204" s="32"/>
+      <c r="U204" s="32"/>
+      <c r="V204" s="32"/>
+      <c r="W204" s="32"/>
+      <c r="X204" s="32"/>
+      <c r="Y204" s="32"/>
+      <c r="Z204" s="32"/>
+      <c r="AA204" s="32"/>
+      <c r="AB204" s="32"/>
+      <c r="AC204" s="32"/>
+      <c r="AD204" s="32"/>
+      <c r="AE204" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="40"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="45"/>
       <c r="D205" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>373</v>
@@ -10641,20 +14413,40 @@
         <v>24</v>
       </c>
       <c r="N205" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O205" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="31"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O205" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P205" s="37"/>
+      <c r="Q205" s="32"/>
+      <c r="R205" s="32"/>
+      <c r="S205" s="32"/>
+      <c r="T205" s="32"/>
+      <c r="U205" s="32"/>
+      <c r="V205" s="32"/>
+      <c r="W205" s="32"/>
+      <c r="X205" s="32"/>
+      <c r="Y205" s="32"/>
+      <c r="Z205" s="32"/>
+      <c r="AA205" s="32"/>
+      <c r="AB205" s="32"/>
+      <c r="AC205" s="32"/>
+      <c r="AD205" s="32"/>
+      <c r="AE205" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="40"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="45"/>
       <c r="D206" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E206" s="15"/>
+      <c r="E206" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="F206" s="6" t="s">
         <v>375</v>
       </c>
@@ -10680,20 +14472,40 @@
         <v>24</v>
       </c>
       <c r="N206" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O206" s="18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="31"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O206" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="P206" s="37"/>
+      <c r="Q206" s="32"/>
+      <c r="R206" s="32"/>
+      <c r="S206" s="32"/>
+      <c r="T206" s="32"/>
+      <c r="U206" s="32"/>
+      <c r="V206" s="32"/>
+      <c r="W206" s="32"/>
+      <c r="X206" s="32"/>
+      <c r="Y206" s="32"/>
+      <c r="Z206" s="32"/>
+      <c r="AA206" s="32"/>
+      <c r="AB206" s="32"/>
+      <c r="AC206" s="32"/>
+      <c r="AD206" s="32"/>
+      <c r="AE206" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="40"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="45"/>
       <c r="D207" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E207" s="15"/>
+      <c r="E207" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="F207" s="6" t="s">
         <v>377</v>
       </c>
@@ -10719,16 +14531,34 @@
         <v>24</v>
       </c>
       <c r="N207" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O207" s="18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="31"/>
-      <c r="B208" s="34"/>
-      <c r="C208" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O207" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="32"/>
+      <c r="R207" s="32"/>
+      <c r="S207" s="32"/>
+      <c r="T207" s="32"/>
+      <c r="U207" s="32"/>
+      <c r="V207" s="32"/>
+      <c r="W207" s="32"/>
+      <c r="X207" s="32"/>
+      <c r="Y207" s="32"/>
+      <c r="Z207" s="32"/>
+      <c r="AA207" s="32"/>
+      <c r="AB207" s="32"/>
+      <c r="AC207" s="32"/>
+      <c r="AD207" s="32"/>
+      <c r="AE207" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="40"/>
+      <c r="B208" s="43"/>
+      <c r="C208" s="45"/>
       <c r="D208" s="14" t="s">
         <v>76</v>
       </c>
@@ -10758,16 +14588,34 @@
         <v>24</v>
       </c>
       <c r="N208" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O208" s="18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A209" s="31"/>
-      <c r="B209" s="34"/>
-      <c r="C209" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="O208" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="32"/>
+      <c r="R208" s="32"/>
+      <c r="S208" s="32"/>
+      <c r="T208" s="32"/>
+      <c r="U208" s="32"/>
+      <c r="V208" s="32"/>
+      <c r="W208" s="32"/>
+      <c r="X208" s="32"/>
+      <c r="Y208" s="32"/>
+      <c r="Z208" s="32"/>
+      <c r="AA208" s="32"/>
+      <c r="AB208" s="32"/>
+      <c r="AC208" s="32"/>
+      <c r="AD208" s="32"/>
+      <c r="AE208" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A209" s="40"/>
+      <c r="B209" s="43"/>
+      <c r="C209" s="45"/>
       <c r="D209" s="14" t="s">
         <v>79</v>
       </c>
@@ -10797,16 +14645,34 @@
         <v>24</v>
       </c>
       <c r="N209" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O209" s="18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A210" s="31"/>
-      <c r="B210" s="34"/>
-      <c r="C210" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O209" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="32"/>
+      <c r="R209" s="32"/>
+      <c r="S209" s="32"/>
+      <c r="T209" s="32"/>
+      <c r="U209" s="32"/>
+      <c r="V209" s="32"/>
+      <c r="W209" s="32"/>
+      <c r="X209" s="32"/>
+      <c r="Y209" s="32"/>
+      <c r="Z209" s="32"/>
+      <c r="AA209" s="32"/>
+      <c r="AB209" s="32"/>
+      <c r="AC209" s="32"/>
+      <c r="AD209" s="32"/>
+      <c r="AE209" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A210" s="40"/>
+      <c r="B210" s="43"/>
+      <c r="C210" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D210" s="14" t="s">
@@ -10840,16 +14706,34 @@
         <v>24</v>
       </c>
       <c r="N210" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O210" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A211" s="31"/>
-      <c r="B211" s="34"/>
-      <c r="C211" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="P210" s="37"/>
+      <c r="Q210" s="32"/>
+      <c r="R210" s="32"/>
+      <c r="S210" s="32"/>
+      <c r="T210" s="32"/>
+      <c r="U210" s="32"/>
+      <c r="V210" s="32"/>
+      <c r="W210" s="32"/>
+      <c r="X210" s="32"/>
+      <c r="Y210" s="32"/>
+      <c r="Z210" s="32"/>
+      <c r="AA210" s="32"/>
+      <c r="AB210" s="32"/>
+      <c r="AC210" s="32"/>
+      <c r="AD210" s="32"/>
+      <c r="AE210" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="40"/>
+      <c r="B211" s="43"/>
+      <c r="C211" s="47"/>
       <c r="D211" s="14" t="s">
         <v>85</v>
       </c>
@@ -10881,14 +14765,32 @@
         <v>24</v>
       </c>
       <c r="N211" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O211" s="18"/>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A212" s="32"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="39"/>
+      <c r="P211" s="37"/>
+      <c r="Q211" s="32"/>
+      <c r="R211" s="32"/>
+      <c r="S211" s="32"/>
+      <c r="T211" s="32"/>
+      <c r="U211" s="32"/>
+      <c r="V211" s="32"/>
+      <c r="W211" s="32"/>
+      <c r="X211" s="32"/>
+      <c r="Y211" s="32"/>
+      <c r="Z211" s="32"/>
+      <c r="AA211" s="32"/>
+      <c r="AB211" s="32"/>
+      <c r="AC211" s="32"/>
+      <c r="AD211" s="32"/>
+      <c r="AE211" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A212" s="41"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="48"/>
       <c r="D212" s="16" t="s">
         <v>87</v>
       </c>
@@ -10920,15 +14822,58 @@
         <v>24</v>
       </c>
       <c r="N212" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O212" s="8" t="s">
         <v>386</v>
       </c>
+      <c r="P212" s="38"/>
+      <c r="Q212" s="32"/>
+      <c r="R212" s="32"/>
+      <c r="S212" s="32"/>
+      <c r="T212" s="32"/>
+      <c r="U212" s="32"/>
+      <c r="V212" s="32"/>
+      <c r="W212" s="32"/>
+      <c r="X212" s="32"/>
+      <c r="Y212" s="32"/>
+      <c r="Z212" s="32"/>
+      <c r="AA212" s="32"/>
+      <c r="AB212" s="32"/>
+      <c r="AC212" s="32"/>
+      <c r="AD212" s="32"/>
+      <c r="AE212" s="34" t="s">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O212"/>
-  <mergeCells count="40">
+  <mergeCells count="41">
+    <mergeCell ref="A163:A187"/>
+    <mergeCell ref="B163:B187"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="A138:A162"/>
+    <mergeCell ref="B138:B162"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C159"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A188:A212"/>
+    <mergeCell ref="B188:B212"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="A113:A137"/>
+    <mergeCell ref="B113:B137"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A92:A112"/>
+    <mergeCell ref="B92:B112"/>
+    <mergeCell ref="C93:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="P1:P212"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C3:C22"/>
@@ -10944,31 +14889,6 @@
     <mergeCell ref="A68:A91"/>
     <mergeCell ref="B68:B91"/>
     <mergeCell ref="C69:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A92:A112"/>
-    <mergeCell ref="B92:B112"/>
-    <mergeCell ref="C93:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="A113:A137"/>
-    <mergeCell ref="B113:B137"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="A163:A187"/>
-    <mergeCell ref="B163:B187"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="A138:A162"/>
-    <mergeCell ref="B138:B162"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A188:A212"/>
-    <mergeCell ref="B188:B212"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C209"/>
-    <mergeCell ref="C210:C212"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E212">
@@ -10976,9 +14896,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O199" r:id="rId1"/>
-    <hyperlink ref="O202" r:id="rId2"/>
-    <hyperlink ref="O203" r:id="rId3"/>
+    <hyperlink ref="N174" r:id="rId1"/>
+    <hyperlink ref="N177" r:id="rId2"/>
+    <hyperlink ref="N178" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/testdata/QueryWalletBalance.xlsx
+++ b/testdata/QueryWalletBalance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0B3FE-DA49-42DD-9AE2-085E979DC3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -1590,7 +1591,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1838,15 +1839,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1877,11 +1869,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2163,7 +2164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2238,14 +2239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B25"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2317,7 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="46" t="s">
         <v>404</v>
       </c>
       <c r="Q1" s="33" t="s">
@@ -2366,10 +2367,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2411,7 +2412,7 @@
       <c r="O2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="37"/>
+      <c r="P2" s="47"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
@@ -2431,9 +2432,9 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="45" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2472,7 +2473,7 @@
       <c r="O3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -2492,9 +2493,9 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
@@ -2531,7 +2532,7 @@
       <c r="O4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="37"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
@@ -2551,9 +2552,9 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="14" t="s">
         <v>34</v>
       </c>
@@ -2590,7 +2591,7 @@
       <c r="O5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="47"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -2610,9 +2611,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
@@ -2649,7 +2650,7 @@
       <c r="O6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="37"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="32"/>
       <c r="R6" s="32"/>
       <c r="S6" s="32"/>
@@ -2669,9 +2670,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
@@ -2708,7 +2709,7 @@
       <c r="O7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
@@ -2728,9 +2729,9 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
@@ -2767,7 +2768,7 @@
       <c r="O8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="37"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
@@ -2787,9 +2788,9 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="14" t="s">
         <v>45</v>
       </c>
@@ -2826,7 +2827,7 @@
       <c r="O9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="37"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
@@ -2846,9 +2847,9 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="14" t="s">
         <v>45</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="O10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="37"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
@@ -2905,9 +2906,9 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
@@ -2944,7 +2945,7 @@
       <c r="O11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="37"/>
+      <c r="P11" s="47"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
@@ -2964,9 +2965,9 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="14" t="s">
         <v>45</v>
       </c>
@@ -3003,7 +3004,7 @@
       <c r="O12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="37"/>
+      <c r="P12" s="47"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
@@ -3023,9 +3024,9 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="14" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3063,7 @@
       <c r="O13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="37"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -3082,9 +3083,9 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="14" t="s">
         <v>45</v>
       </c>
@@ -3121,7 +3122,7 @@
       <c r="O14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="37"/>
+      <c r="P14" s="47"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
@@ -3141,9 +3142,9 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
@@ -3180,7 +3181,7 @@
       <c r="O15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="37"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
@@ -3200,9 +3201,9 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="14" t="s">
         <v>62</v>
       </c>
@@ -3239,7 +3240,7 @@
       <c r="O16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="37"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
@@ -3259,9 +3260,9 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="14" t="s">
         <v>65</v>
       </c>
@@ -3298,7 +3299,7 @@
       <c r="O17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="37"/>
+      <c r="P17" s="47"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
@@ -3318,9 +3319,9 @@
       </c>
     </row>
     <row r="18" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="O18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="37"/>
+      <c r="P18" s="47"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
@@ -3377,9 +3378,9 @@
       </c>
     </row>
     <row r="19" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="14" t="s">
         <v>70</v>
       </c>
@@ -3416,7 +3417,7 @@
       <c r="O19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="37"/>
+      <c r="P19" s="47"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
@@ -3436,9 +3437,9 @@
       </c>
     </row>
     <row r="20" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="14" t="s">
         <v>73</v>
       </c>
@@ -3475,7 +3476,7 @@
       <c r="O20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="37"/>
+      <c r="P20" s="47"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
@@ -3495,9 +3496,9 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="14" t="s">
         <v>76</v>
       </c>
@@ -3532,7 +3533,7 @@
       <c r="O21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="37"/>
+      <c r="P21" s="47"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
@@ -3552,9 +3553,9 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="14" t="s">
         <v>79</v>
       </c>
@@ -3589,7 +3590,7 @@
       <c r="O22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="37"/>
+      <c r="P22" s="47"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -3609,9 +3610,9 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="46" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -3650,7 +3651,7 @@
       <c r="O23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="37"/>
+      <c r="P23" s="47"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
@@ -3670,9 +3671,9 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="47"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="14" t="s">
         <v>85</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="O24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="37"/>
+      <c r="P24" s="47"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
@@ -3727,9 +3728,9 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="16" t="s">
         <v>87</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="O25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="37"/>
+      <c r="P25" s="47"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
@@ -3786,10 +3787,10 @@
       </c>
     </row>
     <row r="26" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+      <c r="A26" s="36">
         <v>2</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3831,7 +3832,7 @@
       <c r="O26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="37"/>
+      <c r="P26" s="47"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
@@ -3851,9 +3852,9 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -3892,7 +3893,7 @@
       <c r="O27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P27" s="37"/>
+      <c r="P27" s="47"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
@@ -3912,9 +3913,9 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
@@ -3951,7 +3952,7 @@
       <c r="O28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="37"/>
+      <c r="P28" s="47"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
@@ -3971,9 +3972,9 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
@@ -4010,7 +4011,7 @@
       <c r="O29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="37"/>
+      <c r="P29" s="47"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
@@ -4030,9 +4031,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="14" t="s">
         <v>36</v>
       </c>
@@ -4069,7 +4070,7 @@
       <c r="O30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="37"/>
+      <c r="P30" s="47"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
@@ -4089,9 +4090,9 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="14" t="s">
         <v>39</v>
       </c>
@@ -4128,7 +4129,7 @@
       <c r="O31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="37"/>
+      <c r="P31" s="47"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
@@ -4148,9 +4149,9 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="14" t="s">
         <v>42</v>
       </c>
@@ -4187,7 +4188,7 @@
       <c r="O32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="37"/>
+      <c r="P32" s="47"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
@@ -4207,9 +4208,9 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="14" t="s">
         <v>45</v>
       </c>
@@ -4246,7 +4247,7 @@
       <c r="O33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="37"/>
+      <c r="P33" s="47"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
@@ -4266,9 +4267,9 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
@@ -4305,7 +4306,7 @@
       <c r="O34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="37"/>
+      <c r="P34" s="47"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
@@ -4325,9 +4326,9 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="14" t="s">
         <v>45</v>
       </c>
@@ -4364,7 +4365,7 @@
       <c r="O35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="37"/>
+      <c r="P35" s="47"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
@@ -4384,9 +4385,9 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="14" t="s">
         <v>59</v>
       </c>
@@ -4423,7 +4424,7 @@
       <c r="O36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="37"/>
+      <c r="P36" s="47"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
@@ -4443,9 +4444,9 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="14" t="s">
         <v>62</v>
       </c>
@@ -4482,7 +4483,7 @@
       <c r="O37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P37" s="37"/>
+      <c r="P37" s="47"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
@@ -4502,9 +4503,9 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="14" t="s">
         <v>65</v>
       </c>
@@ -4541,7 +4542,7 @@
       <c r="O38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="37"/>
+      <c r="P38" s="47"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
@@ -4561,9 +4562,9 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="14" t="s">
         <v>67</v>
       </c>
@@ -4600,7 +4601,7 @@
       <c r="O39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="37"/>
+      <c r="P39" s="47"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
@@ -4620,9 +4621,9 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
@@ -4659,7 +4660,7 @@
       <c r="O40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="37"/>
+      <c r="P40" s="47"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
@@ -4679,9 +4680,9 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="14" t="s">
         <v>73</v>
       </c>
@@ -4718,7 +4719,7 @@
       <c r="O41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="37"/>
+      <c r="P41" s="47"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
@@ -4738,9 +4739,9 @@
       </c>
     </row>
     <row r="42" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="14" t="s">
         <v>76</v>
       </c>
@@ -4775,7 +4776,7 @@
       <c r="O42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="37"/>
+      <c r="P42" s="47"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
@@ -4795,9 +4796,9 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="14" t="s">
         <v>79</v>
       </c>
@@ -4832,7 +4833,7 @@
       <c r="O43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="37"/>
+      <c r="P43" s="47"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
@@ -4852,9 +4853,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="46" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -4893,7 +4894,7 @@
       <c r="O44" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="37"/>
+      <c r="P44" s="47"/>
       <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
@@ -4913,9 +4914,9 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="14" t="s">
         <v>85</v>
       </c>
@@ -4950,7 +4951,7 @@
       <c r="O45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="37"/>
+      <c r="P45" s="47"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="32"/>
       <c r="S45" s="32"/>
@@ -4970,9 +4971,9 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="16" t="s">
         <v>87</v>
       </c>
@@ -5009,7 +5010,7 @@
       <c r="O46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="37"/>
+      <c r="P46" s="47"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
@@ -5029,10 +5030,10 @@
       </c>
     </row>
     <row r="47" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+      <c r="A47" s="36">
         <v>3</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -5074,7 +5075,7 @@
       <c r="O47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="37"/>
+      <c r="P47" s="47"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
@@ -5094,9 +5095,9 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="45" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="42" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -5135,7 +5136,7 @@
       <c r="O48" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="37"/>
+      <c r="P48" s="47"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
@@ -5155,9 +5156,9 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="45"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="14" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +5195,7 @@
       <c r="O49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="37"/>
+      <c r="P49" s="47"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
@@ -5214,9 +5215,9 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="45"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="14" t="s">
         <v>34</v>
       </c>
@@ -5253,7 +5254,7 @@
       <c r="O50" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="37"/>
+      <c r="P50" s="47"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
@@ -5273,9 +5274,9 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="14" t="s">
         <v>36</v>
       </c>
@@ -5312,7 +5313,7 @@
       <c r="O51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="37"/>
+      <c r="P51" s="47"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
@@ -5332,9 +5333,9 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="14" t="s">
         <v>39</v>
       </c>
@@ -5371,7 +5372,7 @@
       <c r="O52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="37"/>
+      <c r="P52" s="47"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
@@ -5391,9 +5392,9 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="45"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="14" t="s">
         <v>42</v>
       </c>
@@ -5430,7 +5431,7 @@
       <c r="O53" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="37"/>
+      <c r="P53" s="47"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
@@ -5450,9 +5451,9 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="45"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="14" t="s">
         <v>45</v>
       </c>
@@ -5489,7 +5490,7 @@
       <c r="O54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="37"/>
+      <c r="P54" s="47"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
@@ -5509,9 +5510,9 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="14" t="s">
         <v>45</v>
       </c>
@@ -5548,7 +5549,7 @@
       <c r="O55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="37"/>
+      <c r="P55" s="47"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
@@ -5568,9 +5569,9 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="14" t="s">
         <v>45</v>
       </c>
@@ -5607,7 +5608,7 @@
       <c r="O56" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="37"/>
+      <c r="P56" s="47"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
@@ -5627,9 +5628,9 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="14" t="s">
         <v>59</v>
       </c>
@@ -5666,7 +5667,7 @@
       <c r="O57" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="37"/>
+      <c r="P57" s="47"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
@@ -5686,9 +5687,9 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="14" t="s">
         <v>62</v>
       </c>
@@ -5725,7 +5726,7 @@
       <c r="O58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="37"/>
+      <c r="P58" s="47"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
@@ -5745,9 +5746,9 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="14" t="s">
         <v>65</v>
       </c>
@@ -5784,7 +5785,7 @@
       <c r="O59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="37"/>
+      <c r="P59" s="47"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="32"/>
       <c r="S59" s="32"/>
@@ -5804,9 +5805,9 @@
       </c>
     </row>
     <row r="60" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="45"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="14" t="s">
         <v>67</v>
       </c>
@@ -5843,7 +5844,7 @@
       <c r="O60" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P60" s="37"/>
+      <c r="P60" s="47"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="32"/>
       <c r="S60" s="32"/>
@@ -5863,9 +5864,9 @@
       </c>
     </row>
     <row r="61" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="14" t="s">
         <v>70</v>
       </c>
@@ -5902,7 +5903,7 @@
       <c r="O61" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P61" s="37"/>
+      <c r="P61" s="47"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="32"/>
       <c r="S61" s="32"/>
@@ -5922,9 +5923,9 @@
       </c>
     </row>
     <row r="62" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="14" t="s">
         <v>73</v>
       </c>
@@ -5961,7 +5962,7 @@
       <c r="O62" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="37"/>
+      <c r="P62" s="47"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
@@ -5981,9 +5982,9 @@
       </c>
     </row>
     <row r="63" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="14" t="s">
         <v>76</v>
       </c>
@@ -6018,7 +6019,7 @@
       <c r="O63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P63" s="37"/>
+      <c r="P63" s="47"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
@@ -6038,9 +6039,9 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="45"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="14" t="s">
         <v>79</v>
       </c>
@@ -6075,7 +6076,7 @@
       <c r="O64" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="37"/>
+      <c r="P64" s="47"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
@@ -6095,9 +6096,9 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="46" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -6136,7 +6137,7 @@
       <c r="O65" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P65" s="37"/>
+      <c r="P65" s="47"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="32"/>
       <c r="S65" s="32"/>
@@ -6156,9 +6157,9 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="14" t="s">
         <v>85</v>
       </c>
@@ -6193,7 +6194,7 @@
       <c r="O66" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="37"/>
+      <c r="P66" s="47"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
@@ -6213,9 +6214,9 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="48"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="16" t="s">
         <v>87</v>
       </c>
@@ -6252,7 +6253,7 @@
       <c r="O67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P67" s="37"/>
+      <c r="P67" s="47"/>
       <c r="Q67" s="32"/>
       <c r="R67" s="32"/>
       <c r="S67" s="32"/>
@@ -6272,10 +6273,10 @@
       </c>
     </row>
     <row r="68" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+      <c r="A68" s="36">
         <v>4</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -6317,7 +6318,7 @@
       <c r="O68" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P68" s="37"/>
+      <c r="P68" s="47"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
@@ -6337,9 +6338,9 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="45" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42" t="s">
         <v>166</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -6378,7 +6379,7 @@
       <c r="O69" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P69" s="37"/>
+      <c r="P69" s="47"/>
       <c r="Q69" s="32"/>
       <c r="R69" s="32"/>
       <c r="S69" s="32"/>
@@ -6398,9 +6399,9 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="45"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="14" t="s">
         <v>31</v>
       </c>
@@ -6437,7 +6438,7 @@
       <c r="O70" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="37"/>
+      <c r="P70" s="47"/>
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
@@ -6457,9 +6458,9 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="45"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="14" t="s">
         <v>34</v>
       </c>
@@ -6496,7 +6497,7 @@
       <c r="O71" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P71" s="37"/>
+      <c r="P71" s="47"/>
       <c r="Q71" s="32"/>
       <c r="R71" s="32"/>
       <c r="S71" s="32"/>
@@ -6516,9 +6517,9 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="45"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="14" t="s">
         <v>36</v>
       </c>
@@ -6555,7 +6556,7 @@
       <c r="O72" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P72" s="37"/>
+      <c r="P72" s="47"/>
       <c r="Q72" s="32"/>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
@@ -6575,9 +6576,9 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="45"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="14" t="s">
         <v>39</v>
       </c>
@@ -6614,7 +6615,7 @@
       <c r="O73" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P73" s="37"/>
+      <c r="P73" s="47"/>
       <c r="Q73" s="32"/>
       <c r="R73" s="32"/>
       <c r="S73" s="32"/>
@@ -6634,9 +6635,9 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="45"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="14" t="s">
         <v>42</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="O74" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P74" s="37"/>
+      <c r="P74" s="47"/>
       <c r="Q74" s="32"/>
       <c r="R74" s="32"/>
       <c r="S74" s="32"/>
@@ -6693,9 +6694,9 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="45"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="14" t="s">
         <v>45</v>
       </c>
@@ -6732,7 +6733,7 @@
       <c r="O75" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P75" s="37"/>
+      <c r="P75" s="47"/>
       <c r="Q75" s="32"/>
       <c r="R75" s="32"/>
       <c r="S75" s="32"/>
@@ -6752,9 +6753,9 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="45"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="14" t="s">
         <v>45</v>
       </c>
@@ -6791,7 +6792,7 @@
       <c r="O76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P76" s="37"/>
+      <c r="P76" s="47"/>
       <c r="Q76" s="32"/>
       <c r="R76" s="32"/>
       <c r="S76" s="32"/>
@@ -6811,9 +6812,9 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="45"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="14" t="s">
         <v>45</v>
       </c>
@@ -6850,7 +6851,7 @@
       <c r="O77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P77" s="37"/>
+      <c r="P77" s="47"/>
       <c r="Q77" s="32"/>
       <c r="R77" s="32"/>
       <c r="S77" s="32"/>
@@ -6870,9 +6871,9 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="45"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="14" t="s">
         <v>45</v>
       </c>
@@ -6909,7 +6910,7 @@
       <c r="O78" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P78" s="37"/>
+      <c r="P78" s="47"/>
       <c r="Q78" s="32"/>
       <c r="R78" s="32"/>
       <c r="S78" s="32"/>
@@ -6929,9 +6930,9 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="45"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="14" t="s">
         <v>45</v>
       </c>
@@ -6968,7 +6969,7 @@
       <c r="O79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P79" s="37"/>
+      <c r="P79" s="47"/>
       <c r="Q79" s="32"/>
       <c r="R79" s="32"/>
       <c r="S79" s="32"/>
@@ -6988,9 +6989,9 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="45"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="14" t="s">
         <v>45</v>
       </c>
@@ -7027,7 +7028,7 @@
       <c r="O80" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P80" s="37"/>
+      <c r="P80" s="47"/>
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
@@ -7047,9 +7048,9 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="45"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="14" t="s">
         <v>59</v>
       </c>
@@ -7086,7 +7087,7 @@
       <c r="O81" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P81" s="37"/>
+      <c r="P81" s="47"/>
       <c r="Q81" s="32"/>
       <c r="R81" s="32"/>
       <c r="S81" s="32"/>
@@ -7106,9 +7107,9 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="45"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="14" t="s">
         <v>62</v>
       </c>
@@ -7145,7 +7146,7 @@
       <c r="O82" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P82" s="37"/>
+      <c r="P82" s="47"/>
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
@@ -7165,9 +7166,9 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="45"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="14" t="s">
         <v>65</v>
       </c>
@@ -7204,7 +7205,7 @@
       <c r="O83" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P83" s="37"/>
+      <c r="P83" s="47"/>
       <c r="Q83" s="32"/>
       <c r="R83" s="32"/>
       <c r="S83" s="32"/>
@@ -7224,9 +7225,9 @@
       </c>
     </row>
     <row r="84" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="45"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="14" t="s">
         <v>67</v>
       </c>
@@ -7263,7 +7264,7 @@
       <c r="O84" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P84" s="37"/>
+      <c r="P84" s="47"/>
       <c r="Q84" s="32"/>
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
@@ -7283,9 +7284,9 @@
       </c>
     </row>
     <row r="85" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="14" t="s">
         <v>70</v>
       </c>
@@ -7322,7 +7323,7 @@
       <c r="O85" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="37"/>
+      <c r="P85" s="47"/>
       <c r="Q85" s="32"/>
       <c r="R85" s="32"/>
       <c r="S85" s="32"/>
@@ -7342,9 +7343,9 @@
       </c>
     </row>
     <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="45"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="14" t="s">
         <v>73</v>
       </c>
@@ -7381,7 +7382,7 @@
       <c r="O86" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P86" s="37"/>
+      <c r="P86" s="47"/>
       <c r="Q86" s="32"/>
       <c r="R86" s="32"/>
       <c r="S86" s="32"/>
@@ -7401,9 +7402,9 @@
       </c>
     </row>
     <row r="87" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="45"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="14" t="s">
         <v>76</v>
       </c>
@@ -7438,7 +7439,7 @@
       <c r="O87" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P87" s="37"/>
+      <c r="P87" s="47"/>
       <c r="Q87" s="32"/>
       <c r="R87" s="32"/>
       <c r="S87" s="32"/>
@@ -7458,9 +7459,9 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="45"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="14" t="s">
         <v>79</v>
       </c>
@@ -7495,7 +7496,7 @@
       <c r="O88" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P88" s="37"/>
+      <c r="P88" s="47"/>
       <c r="Q88" s="32"/>
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
@@ -7515,9 +7516,9 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="46" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -7556,7 +7557,7 @@
       <c r="O89" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P89" s="37"/>
+      <c r="P89" s="47"/>
       <c r="Q89" s="32"/>
       <c r="R89" s="32"/>
       <c r="S89" s="32"/>
@@ -7576,9 +7577,9 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="14" t="s">
         <v>85</v>
       </c>
@@ -7613,7 +7614,7 @@
       <c r="O90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P90" s="37"/>
+      <c r="P90" s="47"/>
       <c r="Q90" s="32"/>
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
@@ -7633,9 +7634,9 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="48"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="16" t="s">
         <v>87</v>
       </c>
@@ -7672,7 +7673,7 @@
       <c r="O91" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P91" s="37"/>
+      <c r="P91" s="47"/>
       <c r="Q91" s="32"/>
       <c r="R91" s="32"/>
       <c r="S91" s="32"/>
@@ -7692,10 +7693,10 @@
       </c>
     </row>
     <row r="92" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="39">
+      <c r="A92" s="36">
         <v>5</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -7737,7 +7738,7 @@
       <c r="O92" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P92" s="37"/>
+      <c r="P92" s="47"/>
       <c r="Q92" s="32"/>
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
@@ -7757,9 +7758,9 @@
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="45" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="42" t="s">
         <v>196</v>
       </c>
       <c r="D93" s="14" t="s">
@@ -7798,7 +7799,7 @@
       <c r="O93" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P93" s="37"/>
+      <c r="P93" s="47"/>
       <c r="Q93" s="32"/>
       <c r="R93" s="32"/>
       <c r="S93" s="32"/>
@@ -7818,9 +7819,9 @@
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="45"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="14" t="s">
         <v>31</v>
       </c>
@@ -7857,7 +7858,7 @@
       <c r="O94" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P94" s="37"/>
+      <c r="P94" s="47"/>
       <c r="Q94" s="32"/>
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
@@ -7877,9 +7878,9 @@
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="45"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="14" t="s">
         <v>34</v>
       </c>
@@ -7916,7 +7917,7 @@
       <c r="O95" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P95" s="37"/>
+      <c r="P95" s="47"/>
       <c r="Q95" s="32"/>
       <c r="R95" s="32"/>
       <c r="S95" s="32"/>
@@ -7936,9 +7937,9 @@
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="45"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="42"/>
       <c r="D96" s="14" t="s">
         <v>36</v>
       </c>
@@ -7975,7 +7976,7 @@
       <c r="O96" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P96" s="37"/>
+      <c r="P96" s="47"/>
       <c r="Q96" s="32"/>
       <c r="R96" s="32"/>
       <c r="S96" s="32"/>
@@ -7995,9 +7996,9 @@
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="14" t="s">
         <v>39</v>
       </c>
@@ -8034,7 +8035,7 @@
       <c r="O97" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P97" s="37"/>
+      <c r="P97" s="47"/>
       <c r="Q97" s="32"/>
       <c r="R97" s="32"/>
       <c r="S97" s="32"/>
@@ -8054,9 +8055,9 @@
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="45"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="42"/>
       <c r="D98" s="14" t="s">
         <v>42</v>
       </c>
@@ -8093,7 +8094,7 @@
       <c r="O98" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P98" s="37"/>
+      <c r="P98" s="47"/>
       <c r="Q98" s="32"/>
       <c r="R98" s="32"/>
       <c r="S98" s="32"/>
@@ -8113,9 +8114,9 @@
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="45"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="42"/>
       <c r="D99" s="14" t="s">
         <v>45</v>
       </c>
@@ -8152,7 +8153,7 @@
       <c r="O99" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P99" s="37"/>
+      <c r="P99" s="47"/>
       <c r="Q99" s="32"/>
       <c r="R99" s="32"/>
       <c r="S99" s="32"/>
@@ -8172,9 +8173,9 @@
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="45"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="14" t="s">
         <v>45</v>
       </c>
@@ -8211,7 +8212,7 @@
       <c r="O100" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P100" s="37"/>
+      <c r="P100" s="47"/>
       <c r="Q100" s="32"/>
       <c r="R100" s="32"/>
       <c r="S100" s="32"/>
@@ -8231,9 +8232,9 @@
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="45"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="14" t="s">
         <v>45</v>
       </c>
@@ -8270,7 +8271,7 @@
       <c r="O101" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P101" s="37"/>
+      <c r="P101" s="47"/>
       <c r="Q101" s="32"/>
       <c r="R101" s="32"/>
       <c r="S101" s="32"/>
@@ -8290,9 +8291,9 @@
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="45"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="14" t="s">
         <v>59</v>
       </c>
@@ -8329,7 +8330,7 @@
       <c r="O102" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P102" s="37"/>
+      <c r="P102" s="47"/>
       <c r="Q102" s="32"/>
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
@@ -8349,9 +8350,9 @@
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="45"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="14" t="s">
         <v>62</v>
       </c>
@@ -8388,7 +8389,7 @@
       <c r="O103" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P103" s="37"/>
+      <c r="P103" s="47"/>
       <c r="Q103" s="32"/>
       <c r="R103" s="32"/>
       <c r="S103" s="32"/>
@@ -8408,9 +8409,9 @@
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="45"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="14" t="s">
         <v>65</v>
       </c>
@@ -8447,7 +8448,7 @@
       <c r="O104" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P104" s="37"/>
+      <c r="P104" s="47"/>
       <c r="Q104" s="32"/>
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
@@ -8467,9 +8468,9 @@
       </c>
     </row>
     <row r="105" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="45"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="14" t="s">
         <v>67</v>
       </c>
@@ -8506,7 +8507,7 @@
       <c r="O105" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P105" s="37"/>
+      <c r="P105" s="47"/>
       <c r="Q105" s="32"/>
       <c r="R105" s="32"/>
       <c r="S105" s="32"/>
@@ -8526,9 +8527,9 @@
       </c>
     </row>
     <row r="106" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="45"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="14" t="s">
         <v>70</v>
       </c>
@@ -8565,7 +8566,7 @@
       <c r="O106" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P106" s="37"/>
+      <c r="P106" s="47"/>
       <c r="Q106" s="32"/>
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
@@ -8585,9 +8586,9 @@
       </c>
     </row>
     <row r="107" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="45"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="14" t="s">
         <v>73</v>
       </c>
@@ -8624,7 +8625,7 @@
       <c r="O107" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P107" s="37"/>
+      <c r="P107" s="47"/>
       <c r="Q107" s="32"/>
       <c r="R107" s="32"/>
       <c r="S107" s="32"/>
@@ -8644,9 +8645,9 @@
       </c>
     </row>
     <row r="108" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="45"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="14" t="s">
         <v>76</v>
       </c>
@@ -8681,7 +8682,7 @@
       <c r="O108" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P108" s="37"/>
+      <c r="P108" s="47"/>
       <c r="Q108" s="32"/>
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
@@ -8701,9 +8702,9 @@
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="45"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="14" t="s">
         <v>79</v>
       </c>
@@ -8738,7 +8739,7 @@
       <c r="O109" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P109" s="37"/>
+      <c r="P109" s="47"/>
       <c r="Q109" s="32"/>
       <c r="R109" s="32"/>
       <c r="S109" s="32"/>
@@ -8758,9 +8759,9 @@
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="46" t="s">
+      <c r="A110" s="37"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -8799,7 +8800,7 @@
       <c r="O110" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P110" s="37"/>
+      <c r="P110" s="47"/>
       <c r="Q110" s="32"/>
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
@@ -8819,9 +8820,9 @@
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="47"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="44"/>
       <c r="D111" s="14" t="s">
         <v>85</v>
       </c>
@@ -8856,7 +8857,7 @@
       <c r="O111" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P111" s="37"/>
+      <c r="P111" s="47"/>
       <c r="Q111" s="32"/>
       <c r="R111" s="32"/>
       <c r="S111" s="32"/>
@@ -8876,9 +8877,9 @@
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="48"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="45"/>
       <c r="D112" s="16" t="s">
         <v>87</v>
       </c>
@@ -8915,7 +8916,7 @@
       <c r="O112" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P112" s="37"/>
+      <c r="P112" s="47"/>
       <c r="Q112" s="32"/>
       <c r="R112" s="32"/>
       <c r="S112" s="32"/>
@@ -8935,13 +8936,13 @@
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113" s="39">
+      <c r="A113" s="36">
         <v>6</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="45" t="s">
+      <c r="C113" s="42" t="s">
         <v>193</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -8980,7 +8981,7 @@
       <c r="O113" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P113" s="37"/>
+      <c r="P113" s="47"/>
       <c r="Q113" s="32"/>
       <c r="R113" s="32"/>
       <c r="S113" s="32"/>
@@ -9000,9 +9001,9 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="45"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="6" t="s">
         <v>226</v>
       </c>
@@ -9039,7 +9040,7 @@
       <c r="O114" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P114" s="37"/>
+      <c r="P114" s="47"/>
       <c r="Q114" s="32"/>
       <c r="R114" s="32"/>
       <c r="S114" s="32"/>
@@ -9059,9 +9060,9 @@
       </c>
     </row>
     <row r="115" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="45"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="6" t="s">
         <v>228</v>
       </c>
@@ -9098,7 +9099,7 @@
       <c r="O115" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P115" s="37"/>
+      <c r="P115" s="47"/>
       <c r="Q115" s="32"/>
       <c r="R115" s="32"/>
       <c r="S115" s="32"/>
@@ -9118,9 +9119,9 @@
       </c>
     </row>
     <row r="116" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="45"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="6" t="s">
         <v>231</v>
       </c>
@@ -9157,7 +9158,7 @@
       <c r="O116" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P116" s="37"/>
+      <c r="P116" s="47"/>
       <c r="Q116" s="32"/>
       <c r="R116" s="32"/>
       <c r="S116" s="32"/>
@@ -9177,9 +9178,9 @@
       </c>
     </row>
     <row r="117" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="45"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="6" t="s">
         <v>234</v>
       </c>
@@ -9216,7 +9217,7 @@
       <c r="O117" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P117" s="37"/>
+      <c r="P117" s="47"/>
       <c r="Q117" s="32"/>
       <c r="R117" s="32"/>
       <c r="S117" s="32"/>
@@ -9236,9 +9237,9 @@
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="45" t="s">
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="42" t="s">
         <v>237</v>
       </c>
       <c r="D118" s="14" t="s">
@@ -9277,7 +9278,7 @@
       <c r="O118" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P118" s="37"/>
+      <c r="P118" s="47"/>
       <c r="Q118" s="32"/>
       <c r="R118" s="32"/>
       <c r="S118" s="32"/>
@@ -9297,9 +9298,9 @@
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="45"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="14" t="s">
         <v>31</v>
       </c>
@@ -9336,7 +9337,7 @@
       <c r="O119" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P119" s="37"/>
+      <c r="P119" s="47"/>
       <c r="Q119" s="32"/>
       <c r="R119" s="32"/>
       <c r="S119" s="32"/>
@@ -9356,9 +9357,9 @@
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="45"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="14" t="s">
         <v>34</v>
       </c>
@@ -9395,7 +9396,7 @@
       <c r="O120" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P120" s="37"/>
+      <c r="P120" s="47"/>
       <c r="Q120" s="32"/>
       <c r="R120" s="32"/>
       <c r="S120" s="32"/>
@@ -9415,9 +9416,9 @@
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="45"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="40"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="14" t="s">
         <v>36</v>
       </c>
@@ -9454,7 +9455,7 @@
       <c r="O121" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P121" s="37"/>
+      <c r="P121" s="47"/>
       <c r="Q121" s="32"/>
       <c r="R121" s="32"/>
       <c r="S121" s="32"/>
@@ -9474,9 +9475,9 @@
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="43"/>
-      <c r="C122" s="45"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="14" t="s">
         <v>39</v>
       </c>
@@ -9513,7 +9514,7 @@
       <c r="O122" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P122" s="37"/>
+      <c r="P122" s="47"/>
       <c r="Q122" s="32"/>
       <c r="R122" s="32"/>
       <c r="S122" s="32"/>
@@ -9533,9 +9534,9 @@
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="45"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="14" t="s">
         <v>42</v>
       </c>
@@ -9572,7 +9573,7 @@
       <c r="O123" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P123" s="37"/>
+      <c r="P123" s="47"/>
       <c r="Q123" s="32"/>
       <c r="R123" s="32"/>
       <c r="S123" s="32"/>
@@ -9592,9 +9593,9 @@
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="45"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="14" t="s">
         <v>45</v>
       </c>
@@ -9631,7 +9632,7 @@
       <c r="O124" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P124" s="37"/>
+      <c r="P124" s="47"/>
       <c r="Q124" s="32"/>
       <c r="R124" s="32"/>
       <c r="S124" s="32"/>
@@ -9651,9 +9652,9 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="45"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="14" t="s">
         <v>45</v>
       </c>
@@ -9690,7 +9691,7 @@
       <c r="O125" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P125" s="37"/>
+      <c r="P125" s="47"/>
       <c r="Q125" s="32"/>
       <c r="R125" s="32"/>
       <c r="S125" s="32"/>
@@ -9710,9 +9711,9 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="45"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="42"/>
       <c r="D126" s="14" t="s">
         <v>45</v>
       </c>
@@ -9749,7 +9750,7 @@
       <c r="O126" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P126" s="37"/>
+      <c r="P126" s="47"/>
       <c r="Q126" s="32"/>
       <c r="R126" s="32"/>
       <c r="S126" s="32"/>
@@ -9769,9 +9770,9 @@
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="45"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="14" t="s">
         <v>59</v>
       </c>
@@ -9808,7 +9809,7 @@
       <c r="O127" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P127" s="37"/>
+      <c r="P127" s="47"/>
       <c r="Q127" s="32"/>
       <c r="R127" s="32"/>
       <c r="S127" s="32"/>
@@ -9828,9 +9829,9 @@
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="45"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="14" t="s">
         <v>62</v>
       </c>
@@ -9867,7 +9868,7 @@
       <c r="O128" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P128" s="37"/>
+      <c r="P128" s="47"/>
       <c r="Q128" s="32"/>
       <c r="R128" s="32"/>
       <c r="S128" s="32"/>
@@ -9887,9 +9888,9 @@
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="45"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="42"/>
       <c r="D129" s="14" t="s">
         <v>65</v>
       </c>
@@ -9926,7 +9927,7 @@
       <c r="O129" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P129" s="37"/>
+      <c r="P129" s="47"/>
       <c r="Q129" s="32"/>
       <c r="R129" s="32"/>
       <c r="S129" s="32"/>
@@ -9946,9 +9947,9 @@
       </c>
     </row>
     <row r="130" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="45"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="42"/>
       <c r="D130" s="14" t="s">
         <v>67</v>
       </c>
@@ -9985,7 +9986,7 @@
       <c r="O130" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P130" s="37"/>
+      <c r="P130" s="47"/>
       <c r="Q130" s="32"/>
       <c r="R130" s="32"/>
       <c r="S130" s="32"/>
@@ -10005,9 +10006,9 @@
       </c>
     </row>
     <row r="131" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="45"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="14" t="s">
         <v>70</v>
       </c>
@@ -10044,7 +10045,7 @@
       <c r="O131" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P131" s="37"/>
+      <c r="P131" s="47"/>
       <c r="Q131" s="32"/>
       <c r="R131" s="32"/>
       <c r="S131" s="32"/>
@@ -10064,9 +10065,9 @@
       </c>
     </row>
     <row r="132" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="45"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="14" t="s">
         <v>73</v>
       </c>
@@ -10103,7 +10104,7 @@
       <c r="O132" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P132" s="37"/>
+      <c r="P132" s="47"/>
       <c r="Q132" s="32"/>
       <c r="R132" s="32"/>
       <c r="S132" s="32"/>
@@ -10123,9 +10124,9 @@
       </c>
     </row>
     <row r="133" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="45"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="14" t="s">
         <v>76</v>
       </c>
@@ -10160,7 +10161,7 @@
       <c r="O133" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P133" s="37"/>
+      <c r="P133" s="47"/>
       <c r="Q133" s="32"/>
       <c r="R133" s="32"/>
       <c r="S133" s="32"/>
@@ -10180,9 +10181,9 @@
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="45"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="42"/>
       <c r="D134" s="14" t="s">
         <v>79</v>
       </c>
@@ -10217,7 +10218,7 @@
       <c r="O134" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P134" s="37"/>
+      <c r="P134" s="47"/>
       <c r="Q134" s="32"/>
       <c r="R134" s="32"/>
       <c r="S134" s="32"/>
@@ -10237,9 +10238,9 @@
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="46" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D135" s="14" t="s">
@@ -10278,7 +10279,7 @@
       <c r="O135" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P135" s="37"/>
+      <c r="P135" s="47"/>
       <c r="Q135" s="32"/>
       <c r="R135" s="32"/>
       <c r="S135" s="32"/>
@@ -10298,9 +10299,9 @@
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="47"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="14" t="s">
         <v>85</v>
       </c>
@@ -10335,7 +10336,7 @@
       <c r="O136" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P136" s="37"/>
+      <c r="P136" s="47"/>
       <c r="Q136" s="32"/>
       <c r="R136" s="32"/>
       <c r="S136" s="32"/>
@@ -10355,9 +10356,9 @@
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="48"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="45"/>
       <c r="D137" s="16" t="s">
         <v>87</v>
       </c>
@@ -10394,7 +10395,7 @@
       <c r="O137" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P137" s="37"/>
+      <c r="P137" s="47"/>
       <c r="Q137" s="32"/>
       <c r="R137" s="32"/>
       <c r="S137" s="32"/>
@@ -10414,13 +10415,13 @@
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A138" s="39">
+      <c r="A138" s="36">
         <v>7</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="45" t="s">
+      <c r="C138" s="42" t="s">
         <v>265</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -10459,7 +10460,7 @@
       <c r="O138" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P138" s="37"/>
+      <c r="P138" s="47"/>
       <c r="Q138" s="32"/>
       <c r="R138" s="32"/>
       <c r="S138" s="32"/>
@@ -10479,9 +10480,9 @@
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="45"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="42"/>
       <c r="D139" s="6" t="s">
         <v>226</v>
       </c>
@@ -10518,7 +10519,7 @@
       <c r="O139" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P139" s="37"/>
+      <c r="P139" s="47"/>
       <c r="Q139" s="32"/>
       <c r="R139" s="32"/>
       <c r="S139" s="32"/>
@@ -10538,9 +10539,9 @@
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="45"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="42"/>
       <c r="D140" s="6" t="s">
         <v>268</v>
       </c>
@@ -10577,7 +10578,7 @@
       <c r="O140" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P140" s="37"/>
+      <c r="P140" s="47"/>
       <c r="Q140" s="32"/>
       <c r="R140" s="32"/>
       <c r="S140" s="32"/>
@@ -10597,9 +10598,9 @@
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="45"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="40"/>
+      <c r="C141" s="42"/>
       <c r="D141" s="6" t="s">
         <v>271</v>
       </c>
@@ -10636,7 +10637,7 @@
       <c r="O141" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P141" s="37"/>
+      <c r="P141" s="47"/>
       <c r="Q141" s="32"/>
       <c r="R141" s="32"/>
       <c r="S141" s="32"/>
@@ -10656,9 +10657,9 @@
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="45"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="42"/>
       <c r="D142" s="6" t="s">
         <v>274</v>
       </c>
@@ -10695,7 +10696,7 @@
       <c r="O142" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P142" s="37"/>
+      <c r="P142" s="47"/>
       <c r="Q142" s="32"/>
       <c r="R142" s="32"/>
       <c r="S142" s="32"/>
@@ -10715,9 +10716,9 @@
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="45" t="s">
+      <c r="A143" s="37"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="42" t="s">
         <v>277</v>
       </c>
       <c r="D143" s="14" t="s">
@@ -10756,7 +10757,7 @@
       <c r="O143" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P143" s="37"/>
+      <c r="P143" s="47"/>
       <c r="Q143" s="32"/>
       <c r="R143" s="32"/>
       <c r="S143" s="32"/>
@@ -10776,9 +10777,9 @@
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="45"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="42"/>
       <c r="D144" s="14" t="s">
         <v>31</v>
       </c>
@@ -10815,7 +10816,7 @@
       <c r="O144" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P144" s="37"/>
+      <c r="P144" s="47"/>
       <c r="Q144" s="32"/>
       <c r="R144" s="32"/>
       <c r="S144" s="32"/>
@@ -10835,9 +10836,9 @@
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="45"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="42"/>
       <c r="D145" s="14" t="s">
         <v>34</v>
       </c>
@@ -10874,7 +10875,7 @@
       <c r="O145" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P145" s="37"/>
+      <c r="P145" s="47"/>
       <c r="Q145" s="32"/>
       <c r="R145" s="32"/>
       <c r="S145" s="32"/>
@@ -10894,9 +10895,9 @@
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="45"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="42"/>
       <c r="D146" s="14" t="s">
         <v>36</v>
       </c>
@@ -10933,7 +10934,7 @@
       <c r="O146" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P146" s="37"/>
+      <c r="P146" s="47"/>
       <c r="Q146" s="32"/>
       <c r="R146" s="32"/>
       <c r="S146" s="32"/>
@@ -10953,9 +10954,9 @@
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="43"/>
-      <c r="C147" s="45"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="40"/>
+      <c r="C147" s="42"/>
       <c r="D147" s="14" t="s">
         <v>39</v>
       </c>
@@ -10992,7 +10993,7 @@
       <c r="O147" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P147" s="37"/>
+      <c r="P147" s="47"/>
       <c r="Q147" s="32"/>
       <c r="R147" s="32"/>
       <c r="S147" s="32"/>
@@ -11012,9 +11013,9 @@
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="45"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="42"/>
       <c r="D148" s="14" t="s">
         <v>42</v>
       </c>
@@ -11051,7 +11052,7 @@
       <c r="O148" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P148" s="37"/>
+      <c r="P148" s="47"/>
       <c r="Q148" s="32"/>
       <c r="R148" s="32"/>
       <c r="S148" s="32"/>
@@ -11071,9 +11072,9 @@
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="45"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="42"/>
       <c r="D149" s="14" t="s">
         <v>45</v>
       </c>
@@ -11110,7 +11111,7 @@
       <c r="O149" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P149" s="37"/>
+      <c r="P149" s="47"/>
       <c r="Q149" s="32"/>
       <c r="R149" s="32"/>
       <c r="S149" s="32"/>
@@ -11130,9 +11131,9 @@
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="45"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="42"/>
       <c r="D150" s="14" t="s">
         <v>45</v>
       </c>
@@ -11169,7 +11170,7 @@
       <c r="O150" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P150" s="37"/>
+      <c r="P150" s="47"/>
       <c r="Q150" s="32"/>
       <c r="R150" s="32"/>
       <c r="S150" s="32"/>
@@ -11189,9 +11190,9 @@
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="45"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="42"/>
       <c r="D151" s="14" t="s">
         <v>45</v>
       </c>
@@ -11228,7 +11229,7 @@
       <c r="O151" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P151" s="37"/>
+      <c r="P151" s="47"/>
       <c r="Q151" s="32"/>
       <c r="R151" s="32"/>
       <c r="S151" s="32"/>
@@ -11248,9 +11249,9 @@
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="45"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="42"/>
       <c r="D152" s="14" t="s">
         <v>59</v>
       </c>
@@ -11287,7 +11288,7 @@
       <c r="O152" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P152" s="37"/>
+      <c r="P152" s="47"/>
       <c r="Q152" s="32"/>
       <c r="R152" s="32"/>
       <c r="S152" s="32"/>
@@ -11307,9 +11308,9 @@
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="45"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="42"/>
       <c r="D153" s="14" t="s">
         <v>62</v>
       </c>
@@ -11346,7 +11347,7 @@
       <c r="O153" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P153" s="37"/>
+      <c r="P153" s="47"/>
       <c r="Q153" s="32"/>
       <c r="R153" s="32"/>
       <c r="S153" s="32"/>
@@ -11366,9 +11367,9 @@
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="45"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="42"/>
       <c r="D154" s="14" t="s">
         <v>65</v>
       </c>
@@ -11405,7 +11406,7 @@
       <c r="O154" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P154" s="37"/>
+      <c r="P154" s="47"/>
       <c r="Q154" s="32"/>
       <c r="R154" s="32"/>
       <c r="S154" s="32"/>
@@ -11425,9 +11426,9 @@
       </c>
     </row>
     <row r="155" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="45"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="14" t="s">
         <v>67</v>
       </c>
@@ -11464,7 +11465,7 @@
       <c r="O155" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P155" s="37"/>
+      <c r="P155" s="47"/>
       <c r="Q155" s="32"/>
       <c r="R155" s="32"/>
       <c r="S155" s="32"/>
@@ -11484,9 +11485,9 @@
       </c>
     </row>
     <row r="156" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="43"/>
-      <c r="C156" s="45"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="42"/>
       <c r="D156" s="14" t="s">
         <v>70</v>
       </c>
@@ -11523,7 +11524,7 @@
       <c r="O156" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P156" s="37"/>
+      <c r="P156" s="47"/>
       <c r="Q156" s="32"/>
       <c r="R156" s="32"/>
       <c r="S156" s="32"/>
@@ -11543,9 +11544,9 @@
       </c>
     </row>
     <row r="157" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
-      <c r="B157" s="43"/>
-      <c r="C157" s="45"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="14" t="s">
         <v>73</v>
       </c>
@@ -11582,7 +11583,7 @@
       <c r="O157" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P157" s="37"/>
+      <c r="P157" s="47"/>
       <c r="Q157" s="32"/>
       <c r="R157" s="32"/>
       <c r="S157" s="32"/>
@@ -11602,9 +11603,9 @@
       </c>
     </row>
     <row r="158" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="43"/>
-      <c r="C158" s="45"/>
+      <c r="A158" s="37"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="42"/>
       <c r="D158" s="14" t="s">
         <v>76</v>
       </c>
@@ -11639,7 +11640,7 @@
       <c r="O158" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P158" s="37"/>
+      <c r="P158" s="47"/>
       <c r="Q158" s="32"/>
       <c r="R158" s="32"/>
       <c r="S158" s="32"/>
@@ -11659,9 +11660,9 @@
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="45"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="42"/>
       <c r="D159" s="14" t="s">
         <v>79</v>
       </c>
@@ -11696,7 +11697,7 @@
       <c r="O159" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P159" s="37"/>
+      <c r="P159" s="47"/>
       <c r="Q159" s="32"/>
       <c r="R159" s="32"/>
       <c r="S159" s="32"/>
@@ -11716,9 +11717,9 @@
       </c>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="46" t="s">
+      <c r="A160" s="37"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D160" s="14" t="s">
@@ -11757,7 +11758,7 @@
       <c r="O160" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P160" s="37"/>
+      <c r="P160" s="47"/>
       <c r="Q160" s="32"/>
       <c r="R160" s="32"/>
       <c r="S160" s="32"/>
@@ -11777,9 +11778,9 @@
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="47"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="44"/>
       <c r="D161" s="14" t="s">
         <v>85</v>
       </c>
@@ -11814,7 +11815,7 @@
       <c r="O161" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P161" s="37"/>
+      <c r="P161" s="47"/>
       <c r="Q161" s="32"/>
       <c r="R161" s="32"/>
       <c r="S161" s="32"/>
@@ -11834,9 +11835,9 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="48"/>
+      <c r="A162" s="38"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="45"/>
       <c r="D162" s="16" t="s">
         <v>87</v>
       </c>
@@ -11873,7 +11874,7 @@
       <c r="O162" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P162" s="37"/>
+      <c r="P162" s="47"/>
       <c r="Q162" s="32"/>
       <c r="R162" s="32"/>
       <c r="S162" s="32"/>
@@ -11893,13 +11894,13 @@
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A163" s="39">
+      <c r="A163" s="36">
         <v>8</v>
       </c>
-      <c r="B163" s="42" t="s">
+      <c r="B163" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="C163" s="42" t="s">
         <v>342</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -11938,7 +11939,7 @@
       <c r="O163" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P163" s="37"/>
+      <c r="P163" s="47"/>
       <c r="Q163" s="32"/>
       <c r="R163" s="32"/>
       <c r="S163" s="32"/>
@@ -11958,9 +11959,9 @@
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="43"/>
-      <c r="C164" s="45"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="6" t="s">
         <v>226</v>
       </c>
@@ -11997,7 +11998,7 @@
       <c r="O164" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P164" s="37"/>
+      <c r="P164" s="47"/>
       <c r="Q164" s="32"/>
       <c r="R164" s="32"/>
       <c r="S164" s="32"/>
@@ -12017,9 +12018,9 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="43"/>
-      <c r="C165" s="45"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="42"/>
       <c r="D165" s="6" t="s">
         <v>345</v>
       </c>
@@ -12056,7 +12057,7 @@
       <c r="O165" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P165" s="37"/>
+      <c r="P165" s="47"/>
       <c r="Q165" s="32"/>
       <c r="R165" s="32"/>
       <c r="S165" s="32"/>
@@ -12076,9 +12077,9 @@
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="45"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="42"/>
       <c r="D166" s="6" t="s">
         <v>347</v>
       </c>
@@ -12115,7 +12116,7 @@
       <c r="O166" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P166" s="37"/>
+      <c r="P166" s="47"/>
       <c r="Q166" s="32"/>
       <c r="R166" s="32"/>
       <c r="S166" s="32"/>
@@ -12135,9 +12136,9 @@
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="45"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="42"/>
       <c r="D167" s="6" t="s">
         <v>130</v>
       </c>
@@ -12174,7 +12175,7 @@
       <c r="O167" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P167" s="37"/>
+      <c r="P167" s="47"/>
       <c r="Q167" s="32"/>
       <c r="R167" s="32"/>
       <c r="S167" s="32"/>
@@ -12194,9 +12195,9 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="45" t="s">
+      <c r="A168" s="37"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="42" t="s">
         <v>350</v>
       </c>
       <c r="D168" s="14" t="s">
@@ -12235,7 +12236,7 @@
       <c r="O168" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P168" s="37"/>
+      <c r="P168" s="47"/>
       <c r="Q168" s="32"/>
       <c r="R168" s="32"/>
       <c r="S168" s="32"/>
@@ -12255,9 +12256,9 @@
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="45"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="42"/>
       <c r="D169" s="14" t="s">
         <v>31</v>
       </c>
@@ -12294,7 +12295,7 @@
       <c r="O169" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P169" s="37"/>
+      <c r="P169" s="47"/>
       <c r="Q169" s="32"/>
       <c r="R169" s="32"/>
       <c r="S169" s="32"/>
@@ -12314,9 +12315,9 @@
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
-      <c r="B170" s="43"/>
-      <c r="C170" s="45"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="42"/>
       <c r="D170" s="14" t="s">
         <v>34</v>
       </c>
@@ -12353,7 +12354,7 @@
       <c r="O170" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P170" s="37"/>
+      <c r="P170" s="47"/>
       <c r="Q170" s="32"/>
       <c r="R170" s="32"/>
       <c r="S170" s="32"/>
@@ -12373,9 +12374,9 @@
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A171" s="40"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="45"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="42"/>
       <c r="D171" s="14" t="s">
         <v>36</v>
       </c>
@@ -12412,7 +12413,7 @@
       <c r="O171" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P171" s="37"/>
+      <c r="P171" s="47"/>
       <c r="Q171" s="32"/>
       <c r="R171" s="32"/>
       <c r="S171" s="32"/>
@@ -12432,9 +12433,9 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="45"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="42"/>
       <c r="D172" s="14" t="s">
         <v>39</v>
       </c>
@@ -12471,7 +12472,7 @@
       <c r="O172" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P172" s="37"/>
+      <c r="P172" s="47"/>
       <c r="Q172" s="32"/>
       <c r="R172" s="32"/>
       <c r="S172" s="32"/>
@@ -12491,9 +12492,9 @@
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="45"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="42"/>
       <c r="D173" s="14" t="s">
         <v>42</v>
       </c>
@@ -12530,7 +12531,7 @@
       <c r="O173" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P173" s="37"/>
+      <c r="P173" s="47"/>
       <c r="Q173" s="32"/>
       <c r="R173" s="32"/>
       <c r="S173" s="32"/>
@@ -12550,9 +12551,9 @@
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
-      <c r="B174" s="43"/>
-      <c r="C174" s="45"/>
+      <c r="A174" s="37"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="42"/>
       <c r="D174" s="14" t="s">
         <v>45</v>
       </c>
@@ -12589,7 +12590,7 @@
       <c r="O174" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P174" s="37"/>
+      <c r="P174" s="47"/>
       <c r="Q174" s="32"/>
       <c r="R174" s="32"/>
       <c r="S174" s="32"/>
@@ -12609,9 +12610,9 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="43"/>
-      <c r="C175" s="45"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="42"/>
       <c r="D175" s="14" t="s">
         <v>45</v>
       </c>
@@ -12648,7 +12649,7 @@
       <c r="O175" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P175" s="37"/>
+      <c r="P175" s="47"/>
       <c r="Q175" s="32"/>
       <c r="R175" s="32"/>
       <c r="S175" s="32"/>
@@ -12668,9 +12669,9 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="45"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="42"/>
       <c r="D176" s="14" t="s">
         <v>45</v>
       </c>
@@ -12707,7 +12708,7 @@
       <c r="O176" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P176" s="37"/>
+      <c r="P176" s="47"/>
       <c r="Q176" s="32"/>
       <c r="R176" s="32"/>
       <c r="S176" s="32"/>
@@ -12727,9 +12728,9 @@
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="45"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="42"/>
       <c r="D177" s="14" t="s">
         <v>59</v>
       </c>
@@ -12766,7 +12767,7 @@
       <c r="O177" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P177" s="37"/>
+      <c r="P177" s="47"/>
       <c r="Q177" s="32"/>
       <c r="R177" s="32"/>
       <c r="S177" s="32"/>
@@ -12786,9 +12787,9 @@
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="45"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="40"/>
+      <c r="C178" s="42"/>
       <c r="D178" s="14" t="s">
         <v>62</v>
       </c>
@@ -12825,7 +12826,7 @@
       <c r="O178" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P178" s="37"/>
+      <c r="P178" s="47"/>
       <c r="Q178" s="32"/>
       <c r="R178" s="32"/>
       <c r="S178" s="32"/>
@@ -12845,9 +12846,9 @@
       </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="45"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="40"/>
+      <c r="C179" s="42"/>
       <c r="D179" s="14" t="s">
         <v>65</v>
       </c>
@@ -12884,7 +12885,7 @@
       <c r="O179" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P179" s="37"/>
+      <c r="P179" s="47"/>
       <c r="Q179" s="32"/>
       <c r="R179" s="32"/>
       <c r="S179" s="32"/>
@@ -12904,9 +12905,9 @@
       </c>
     </row>
     <row r="180" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
-      <c r="B180" s="43"/>
-      <c r="C180" s="45"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="42"/>
       <c r="D180" s="14" t="s">
         <v>67</v>
       </c>
@@ -12943,7 +12944,7 @@
       <c r="O180" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P180" s="37"/>
+      <c r="P180" s="47"/>
       <c r="Q180" s="32"/>
       <c r="R180" s="32"/>
       <c r="S180" s="32"/>
@@ -12963,9 +12964,9 @@
       </c>
     </row>
     <row r="181" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
-      <c r="B181" s="43"/>
-      <c r="C181" s="45"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="42"/>
       <c r="D181" s="14" t="s">
         <v>70</v>
       </c>
@@ -13000,7 +13001,7 @@
       <c r="O181" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P181" s="37"/>
+      <c r="P181" s="47"/>
       <c r="Q181" s="32"/>
       <c r="R181" s="32"/>
       <c r="S181" s="32"/>
@@ -13020,9 +13021,9 @@
       </c>
     </row>
     <row r="182" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
-      <c r="B182" s="43"/>
-      <c r="C182" s="45"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="42"/>
       <c r="D182" s="14" t="s">
         <v>73</v>
       </c>
@@ -13057,7 +13058,7 @@
       <c r="O182" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P182" s="37"/>
+      <c r="P182" s="47"/>
       <c r="Q182" s="32"/>
       <c r="R182" s="32"/>
       <c r="S182" s="32"/>
@@ -13077,9 +13078,9 @@
       </c>
     </row>
     <row r="183" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="45"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="42"/>
       <c r="D183" s="14" t="s">
         <v>76</v>
       </c>
@@ -13114,7 +13115,7 @@
       <c r="O183" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P183" s="37"/>
+      <c r="P183" s="47"/>
       <c r="Q183" s="32"/>
       <c r="R183" s="32"/>
       <c r="S183" s="32"/>
@@ -13134,9 +13135,9 @@
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="45"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="42"/>
       <c r="D184" s="14" t="s">
         <v>79</v>
       </c>
@@ -13171,7 +13172,7 @@
       <c r="O184" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P184" s="37"/>
+      <c r="P184" s="47"/>
       <c r="Q184" s="32"/>
       <c r="R184" s="32"/>
       <c r="S184" s="32"/>
@@ -13191,9 +13192,9 @@
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="46" t="s">
+      <c r="A185" s="37"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D185" s="14" t="s">
@@ -13232,7 +13233,7 @@
       <c r="O185" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P185" s="37"/>
+      <c r="P185" s="47"/>
       <c r="Q185" s="32"/>
       <c r="R185" s="32"/>
       <c r="S185" s="32"/>
@@ -13252,9 +13253,9 @@
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
-      <c r="B186" s="43"/>
-      <c r="C186" s="47"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="44"/>
       <c r="D186" s="14" t="s">
         <v>85</v>
       </c>
@@ -13289,7 +13290,7 @@
       <c r="O186" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P186" s="37"/>
+      <c r="P186" s="47"/>
       <c r="Q186" s="32"/>
       <c r="R186" s="32"/>
       <c r="S186" s="32"/>
@@ -13309,9 +13310,9 @@
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A187" s="41"/>
-      <c r="B187" s="44"/>
-      <c r="C187" s="48"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="45"/>
       <c r="D187" s="16" t="s">
         <v>87</v>
       </c>
@@ -13348,7 +13349,7 @@
       <c r="O187" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="P187" s="37"/>
+      <c r="P187" s="47"/>
       <c r="Q187" s="32"/>
       <c r="R187" s="32"/>
       <c r="S187" s="32"/>
@@ -13368,13 +13369,13 @@
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A188" s="39">
+      <c r="A188" s="36">
         <v>9</v>
       </c>
-      <c r="B188" s="42" t="s">
+      <c r="B188" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C188" s="45" t="s">
+      <c r="C188" s="42" t="s">
         <v>305</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -13413,7 +13414,7 @@
       <c r="O188" s="18">
         <v>1</v>
       </c>
-      <c r="P188" s="37"/>
+      <c r="P188" s="47"/>
       <c r="Q188" s="32"/>
       <c r="R188" s="32"/>
       <c r="S188" s="32"/>
@@ -13433,9 +13434,9 @@
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
-      <c r="B189" s="43"/>
-      <c r="C189" s="45"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="42"/>
       <c r="D189" s="6" t="s">
         <v>226</v>
       </c>
@@ -13472,7 +13473,7 @@
       <c r="O189" s="18">
         <v>12</v>
       </c>
-      <c r="P189" s="37"/>
+      <c r="P189" s="47"/>
       <c r="Q189" s="32"/>
       <c r="R189" s="32"/>
       <c r="S189" s="32"/>
@@ -13492,9 +13493,9 @@
       </c>
     </row>
     <row r="190" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="45"/>
+      <c r="A190" s="37"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="42"/>
       <c r="D190" s="6" t="s">
         <v>308</v>
       </c>
@@ -13531,7 +13532,7 @@
       <c r="O190" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="P190" s="37"/>
+      <c r="P190" s="47"/>
       <c r="Q190" s="32"/>
       <c r="R190" s="32"/>
       <c r="S190" s="32"/>
@@ -13551,9 +13552,9 @@
       </c>
     </row>
     <row r="191" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="45"/>
+      <c r="A191" s="37"/>
+      <c r="B191" s="40"/>
+      <c r="C191" s="42"/>
       <c r="D191" s="6" t="s">
         <v>311</v>
       </c>
@@ -13590,7 +13591,7 @@
       <c r="O191" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="P191" s="37"/>
+      <c r="P191" s="47"/>
       <c r="Q191" s="32"/>
       <c r="R191" s="32"/>
       <c r="S191" s="32"/>
@@ -13610,9 +13611,9 @@
       </c>
     </row>
     <row r="192" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
-      <c r="B192" s="43"/>
-      <c r="C192" s="45"/>
+      <c r="A192" s="37"/>
+      <c r="B192" s="40"/>
+      <c r="C192" s="42"/>
       <c r="D192" s="6" t="s">
         <v>314</v>
       </c>
@@ -13649,7 +13650,7 @@
       <c r="O192" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="P192" s="37"/>
+      <c r="P192" s="47"/>
       <c r="Q192" s="32"/>
       <c r="R192" s="32"/>
       <c r="S192" s="32"/>
@@ -13669,9 +13670,9 @@
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="43"/>
-      <c r="C193" s="45" t="s">
+      <c r="A193" s="37"/>
+      <c r="B193" s="40"/>
+      <c r="C193" s="42" t="s">
         <v>317</v>
       </c>
       <c r="D193" s="14" t="s">
@@ -13710,7 +13711,7 @@
       <c r="O193" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="P193" s="37"/>
+      <c r="P193" s="47"/>
       <c r="Q193" s="32"/>
       <c r="R193" s="32"/>
       <c r="S193" s="32"/>
@@ -13730,9 +13731,9 @@
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
-      <c r="B194" s="43"/>
-      <c r="C194" s="45"/>
+      <c r="A194" s="37"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="42"/>
       <c r="D194" s="14" t="s">
         <v>31</v>
       </c>
@@ -13769,7 +13770,7 @@
       <c r="O194" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="P194" s="37"/>
+      <c r="P194" s="47"/>
       <c r="Q194" s="32"/>
       <c r="R194" s="32"/>
       <c r="S194" s="32"/>
@@ -13789,9 +13790,9 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
-      <c r="B195" s="43"/>
-      <c r="C195" s="45"/>
+      <c r="A195" s="37"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="42"/>
       <c r="D195" s="14" t="s">
         <v>34</v>
       </c>
@@ -13828,7 +13829,7 @@
       <c r="O195" s="18">
         <v>9876543210</v>
       </c>
-      <c r="P195" s="37"/>
+      <c r="P195" s="47"/>
       <c r="Q195" s="32"/>
       <c r="R195" s="32"/>
       <c r="S195" s="32"/>
@@ -13848,9 +13849,9 @@
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
-      <c r="B196" s="43"/>
-      <c r="C196" s="45"/>
+      <c r="A196" s="37"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="42"/>
       <c r="D196" s="14" t="s">
         <v>36</v>
       </c>
@@ -13887,7 +13888,7 @@
       <c r="O196" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="P196" s="37"/>
+      <c r="P196" s="47"/>
       <c r="Q196" s="32"/>
       <c r="R196" s="32"/>
       <c r="S196" s="32"/>
@@ -13907,9 +13908,9 @@
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
-      <c r="B197" s="43"/>
-      <c r="C197" s="45"/>
+      <c r="A197" s="37"/>
+      <c r="B197" s="40"/>
+      <c r="C197" s="42"/>
       <c r="D197" s="14" t="s">
         <v>39</v>
       </c>
@@ -13946,7 +13947,7 @@
       <c r="O197" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="P197" s="37"/>
+      <c r="P197" s="47"/>
       <c r="Q197" s="32"/>
       <c r="R197" s="32"/>
       <c r="S197" s="32"/>
@@ -13966,9 +13967,9 @@
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
-      <c r="B198" s="43"/>
-      <c r="C198" s="45"/>
+      <c r="A198" s="37"/>
+      <c r="B198" s="40"/>
+      <c r="C198" s="42"/>
       <c r="D198" s="14" t="s">
         <v>42</v>
       </c>
@@ -14005,7 +14006,7 @@
       <c r="O198" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="P198" s="37"/>
+      <c r="P198" s="47"/>
       <c r="Q198" s="32"/>
       <c r="R198" s="32"/>
       <c r="S198" s="32"/>
@@ -14025,9 +14026,9 @@
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A199" s="40"/>
-      <c r="B199" s="43"/>
-      <c r="C199" s="45"/>
+      <c r="A199" s="37"/>
+      <c r="B199" s="40"/>
+      <c r="C199" s="42"/>
       <c r="D199" s="14" t="s">
         <v>45</v>
       </c>
@@ -14064,7 +14065,7 @@
       <c r="O199" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P199" s="37"/>
+      <c r="P199" s="47"/>
       <c r="Q199" s="32"/>
       <c r="R199" s="32"/>
       <c r="S199" s="32"/>
@@ -14084,9 +14085,9 @@
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
-      <c r="B200" s="43"/>
-      <c r="C200" s="45"/>
+      <c r="A200" s="37"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="42"/>
       <c r="D200" s="14" t="s">
         <v>45</v>
       </c>
@@ -14123,7 +14124,7 @@
       <c r="O200" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P200" s="37"/>
+      <c r="P200" s="47"/>
       <c r="Q200" s="32"/>
       <c r="R200" s="32"/>
       <c r="S200" s="32"/>
@@ -14143,9 +14144,9 @@
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
-      <c r="B201" s="43"/>
-      <c r="C201" s="45"/>
+      <c r="A201" s="37"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="42"/>
       <c r="D201" s="14" t="s">
         <v>45</v>
       </c>
@@ -14182,7 +14183,7 @@
       <c r="O201" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="P201" s="37"/>
+      <c r="P201" s="47"/>
       <c r="Q201" s="32"/>
       <c r="R201" s="32"/>
       <c r="S201" s="32"/>
@@ -14202,9 +14203,9 @@
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
-      <c r="B202" s="43"/>
-      <c r="C202" s="45"/>
+      <c r="A202" s="37"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="42"/>
       <c r="D202" s="14" t="s">
         <v>59</v>
       </c>
@@ -14241,7 +14242,7 @@
       <c r="O202" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P202" s="37"/>
+      <c r="P202" s="47"/>
       <c r="Q202" s="32"/>
       <c r="R202" s="32"/>
       <c r="S202" s="32"/>
@@ -14261,9 +14262,9 @@
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="43"/>
-      <c r="C203" s="45"/>
+      <c r="A203" s="37"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="42"/>
       <c r="D203" s="14" t="s">
         <v>62</v>
       </c>
@@ -14300,7 +14301,7 @@
       <c r="O203" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="P203" s="37"/>
+      <c r="P203" s="47"/>
       <c r="Q203" s="32"/>
       <c r="R203" s="32"/>
       <c r="S203" s="32"/>
@@ -14320,9 +14321,9 @@
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="43"/>
-      <c r="C204" s="45"/>
+      <c r="A204" s="37"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="42"/>
       <c r="D204" s="14" t="s">
         <v>65</v>
       </c>
@@ -14359,7 +14360,7 @@
       <c r="O204" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="P204" s="37"/>
+      <c r="P204" s="47"/>
       <c r="Q204" s="32"/>
       <c r="R204" s="32"/>
       <c r="S204" s="32"/>
@@ -14379,9 +14380,9 @@
       </c>
     </row>
     <row r="205" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
-      <c r="B205" s="43"/>
-      <c r="C205" s="45"/>
+      <c r="A205" s="37"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="42"/>
       <c r="D205" s="14" t="s">
         <v>67</v>
       </c>
@@ -14418,7 +14419,7 @@
       <c r="O205" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="P205" s="37"/>
+      <c r="P205" s="47"/>
       <c r="Q205" s="32"/>
       <c r="R205" s="32"/>
       <c r="S205" s="32"/>
@@ -14438,9 +14439,9 @@
       </c>
     </row>
     <row r="206" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
-      <c r="B206" s="43"/>
-      <c r="C206" s="45"/>
+      <c r="A206" s="37"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="42"/>
       <c r="D206" s="14" t="s">
         <v>70</v>
       </c>
@@ -14477,7 +14478,7 @@
       <c r="O206" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P206" s="37"/>
+      <c r="P206" s="47"/>
       <c r="Q206" s="32"/>
       <c r="R206" s="32"/>
       <c r="S206" s="32"/>
@@ -14497,9 +14498,9 @@
       </c>
     </row>
     <row r="207" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
-      <c r="B207" s="43"/>
-      <c r="C207" s="45"/>
+      <c r="A207" s="37"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="42"/>
       <c r="D207" s="14" t="s">
         <v>73</v>
       </c>
@@ -14536,7 +14537,7 @@
       <c r="O207" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="P207" s="37"/>
+      <c r="P207" s="47"/>
       <c r="Q207" s="32"/>
       <c r="R207" s="32"/>
       <c r="S207" s="32"/>
@@ -14556,9 +14557,9 @@
       </c>
     </row>
     <row r="208" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="43"/>
-      <c r="C208" s="45"/>
+      <c r="A208" s="37"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="42"/>
       <c r="D208" s="14" t="s">
         <v>76</v>
       </c>
@@ -14593,7 +14594,7 @@
       <c r="O208" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="P208" s="37"/>
+      <c r="P208" s="47"/>
       <c r="Q208" s="32"/>
       <c r="R208" s="32"/>
       <c r="S208" s="32"/>
@@ -14613,9 +14614,9 @@
       </c>
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
-      <c r="B209" s="43"/>
-      <c r="C209" s="45"/>
+      <c r="A209" s="37"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="42"/>
       <c r="D209" s="14" t="s">
         <v>79</v>
       </c>
@@ -14650,7 +14651,7 @@
       <c r="O209" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P209" s="37"/>
+      <c r="P209" s="47"/>
       <c r="Q209" s="32"/>
       <c r="R209" s="32"/>
       <c r="S209" s="32"/>
@@ -14670,9 +14671,9 @@
       </c>
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
-      <c r="B210" s="43"/>
-      <c r="C210" s="46" t="s">
+      <c r="A210" s="37"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="43" t="s">
         <v>125</v>
       </c>
       <c r="D210" s="14" t="s">
@@ -14711,7 +14712,7 @@
       <c r="O210" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="P210" s="37"/>
+      <c r="P210" s="47"/>
       <c r="Q210" s="32"/>
       <c r="R210" s="32"/>
       <c r="S210" s="32"/>
@@ -14731,9 +14732,9 @@
       </c>
     </row>
     <row r="211" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
-      <c r="B211" s="43"/>
-      <c r="C211" s="47"/>
+      <c r="A211" s="37"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="44"/>
       <c r="D211" s="14" t="s">
         <v>85</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>26</v>
       </c>
       <c r="O211" s="18"/>
-      <c r="P211" s="37"/>
+      <c r="P211" s="47"/>
       <c r="Q211" s="32"/>
       <c r="R211" s="32"/>
       <c r="S211" s="32"/>
@@ -14788,9 +14789,9 @@
       </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A212" s="41"/>
-      <c r="B212" s="44"/>
-      <c r="C212" s="48"/>
+      <c r="A212" s="38"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="45"/>
       <c r="D212" s="16" t="s">
         <v>87</v>
       </c>
@@ -14827,7 +14828,7 @@
       <c r="O212" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="P212" s="38"/>
+      <c r="P212" s="48"/>
       <c r="Q212" s="32"/>
       <c r="R212" s="32"/>
       <c r="S212" s="32"/>
@@ -14848,31 +14849,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A163:A187"/>
-    <mergeCell ref="B163:B187"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="A138:A162"/>
-    <mergeCell ref="B138:B162"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A188:A212"/>
-    <mergeCell ref="B188:B212"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="A113:A137"/>
-    <mergeCell ref="B113:B137"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="C118:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A92:A112"/>
-    <mergeCell ref="B92:B112"/>
-    <mergeCell ref="C93:C109"/>
-    <mergeCell ref="C110:C112"/>
     <mergeCell ref="P1:P212"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B25"/>
@@ -14889,16 +14865,41 @@
     <mergeCell ref="A68:A91"/>
     <mergeCell ref="B68:B91"/>
     <mergeCell ref="C69:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A92:A112"/>
+    <mergeCell ref="B92:B112"/>
+    <mergeCell ref="C93:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="A113:A137"/>
+    <mergeCell ref="B113:B137"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C118:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="A188:A212"/>
+    <mergeCell ref="B188:B212"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="A138:A162"/>
+    <mergeCell ref="B138:B162"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C159"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A163:A187"/>
+    <mergeCell ref="B163:B187"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="C185:C187"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E212">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E212" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N174" r:id="rId1"/>
-    <hyperlink ref="N177" r:id="rId2"/>
-    <hyperlink ref="N178" r:id="rId3"/>
+    <hyperlink ref="N174" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="N177" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="N178" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
